--- a/SourceDataTables/FigS13.xlsx
+++ b/SourceDataTables/FigS13.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="219">
   <si>
     <t>Gene</t>
   </si>
@@ -690,7 +690,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -700,14 +700,34 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,30 +750,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -776,7 +796,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -799,7 +819,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -822,7 +842,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -845,7 +865,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -868,7 +888,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -891,7 +911,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -914,7 +934,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -937,7 +957,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -960,7 +980,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -983,7 +1003,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1006,7 +1026,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1029,7 +1049,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -1052,7 +1072,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1075,7 +1095,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1098,7 +1118,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1121,7 +1141,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1144,7 +1164,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1167,7 +1187,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1190,7 +1210,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1213,7 +1233,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1236,7 +1256,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1259,7 +1279,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1282,7 +1302,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -1305,7 +1325,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -1328,7 +1348,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -1351,7 +1371,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -1374,7 +1394,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -1397,7 +1417,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -1420,7 +1440,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -1443,7 +1463,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -1466,7 +1486,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -1489,7 +1509,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -1512,7 +1532,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -1535,7 +1555,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -1558,7 +1578,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -1581,7 +1601,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -1604,7 +1624,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -1627,7 +1647,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -1650,7 +1670,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -1673,7 +1693,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -1696,7 +1716,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -1719,7 +1739,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -1742,7 +1762,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -1765,7 +1785,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -1788,7 +1808,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -1811,7 +1831,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -1834,7 +1854,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -1857,7 +1877,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -1880,7 +1900,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -1903,7 +1923,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -1926,7 +1946,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -1949,7 +1969,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -1972,7 +1992,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -1995,7 +2015,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -2018,7 +2038,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -2041,7 +2061,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -2064,7 +2084,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -2087,7 +2107,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -2110,7 +2130,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -2133,7 +2153,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -2156,7 +2176,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -2179,7 +2199,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -2202,7 +2222,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -2225,7 +2245,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -2248,7 +2268,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -2271,7 +2291,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -2294,7 +2314,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -2317,7 +2337,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -2340,7 +2360,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -2363,7 +2383,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="11" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -2386,7 +2406,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -2409,7 +2429,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -2432,7 +2452,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -2455,7 +2475,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -2478,7 +2498,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -2501,7 +2521,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="11" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -2524,7 +2544,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -2547,7 +2567,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -2570,7 +2590,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -2593,7 +2613,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="11" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -2616,7 +2636,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B83">
@@ -2639,7 +2659,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="11" t="s">
         <v>83</v>
       </c>
       <c r="B84">
@@ -2662,7 +2682,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="11" t="s">
         <v>84</v>
       </c>
       <c r="B85">
@@ -2685,7 +2705,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B86">
@@ -2708,7 +2728,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B87">
@@ -2731,7 +2751,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="11" t="s">
         <v>87</v>
       </c>
       <c r="B88">
@@ -2754,7 +2774,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B89">
@@ -2777,7 +2797,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B90">
@@ -2800,7 +2820,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B91">
@@ -2823,7 +2843,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B92">
@@ -2846,7 +2866,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -2869,7 +2889,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -2892,7 +2912,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="11" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -2915,7 +2935,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="11" t="s">
         <v>95</v>
       </c>
       <c r="B96">
@@ -2938,7 +2958,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B97">
@@ -2961,7 +2981,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B98">
@@ -2984,7 +3004,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B99">
@@ -3007,7 +3027,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="11" t="s">
         <v>99</v>
       </c>
       <c r="B100">
@@ -3030,7 +3050,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="11" t="s">
         <v>100</v>
       </c>
       <c r="B101">
@@ -3053,7 +3073,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B102">
@@ -3076,7 +3096,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B103">
@@ -3099,7 +3119,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B104">
@@ -3122,7 +3142,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="11" t="s">
         <v>104</v>
       </c>
       <c r="B105">
@@ -3145,7 +3165,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B106">
@@ -3168,7 +3188,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B107">
@@ -3191,7 +3211,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="11" t="s">
         <v>107</v>
       </c>
       <c r="B108">
@@ -3214,7 +3234,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="11" t="s">
         <v>108</v>
       </c>
       <c r="B109">
@@ -3237,7 +3257,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="11" t="s">
         <v>109</v>
       </c>
       <c r="B110">
@@ -3260,7 +3280,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="11" t="s">
         <v>110</v>
       </c>
       <c r="B111">
@@ -3283,7 +3303,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B112">
@@ -3306,7 +3326,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="11" t="s">
         <v>112</v>
       </c>
       <c r="B113">
@@ -3329,7 +3349,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="11" t="s">
         <v>113</v>
       </c>
       <c r="B114">
@@ -3352,7 +3372,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="11" t="s">
         <v>114</v>
       </c>
       <c r="B115">
@@ -3375,7 +3395,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="11" t="s">
         <v>115</v>
       </c>
       <c r="B116">
@@ -3398,7 +3418,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="11" t="s">
         <v>116</v>
       </c>
       <c r="B117">
@@ -3421,7 +3441,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="11" t="s">
         <v>117</v>
       </c>
       <c r="B118">
@@ -3444,7 +3464,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B119">
@@ -3467,7 +3487,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="11" t="s">
         <v>119</v>
       </c>
       <c r="B120">
@@ -3490,7 +3510,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="11" t="s">
         <v>120</v>
       </c>
       <c r="B121">
@@ -3513,7 +3533,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="11" t="s">
         <v>121</v>
       </c>
       <c r="B122">
@@ -3536,7 +3556,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="11" t="s">
         <v>122</v>
       </c>
       <c r="B123">
@@ -3559,7 +3579,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="11" t="s">
         <v>123</v>
       </c>
       <c r="B124">
@@ -3582,7 +3602,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="11" t="s">
         <v>124</v>
       </c>
       <c r="B125">
@@ -3605,7 +3625,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B126">
@@ -3628,7 +3648,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="11" t="s">
         <v>126</v>
       </c>
       <c r="B127">
@@ -3651,7 +3671,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="11" t="s">
         <v>127</v>
       </c>
       <c r="B128">
@@ -3674,7 +3694,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="11" t="s">
         <v>128</v>
       </c>
       <c r="B129">
@@ -3697,7 +3717,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="11" t="s">
         <v>129</v>
       </c>
       <c r="B130">
@@ -3720,7 +3740,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="11" t="s">
         <v>130</v>
       </c>
       <c r="B131">
@@ -3743,7 +3763,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="11" t="s">
         <v>131</v>
       </c>
       <c r="B132">
@@ -3766,7 +3786,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="11" t="s">
         <v>132</v>
       </c>
       <c r="B133">
@@ -3789,7 +3809,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="11" t="s">
         <v>133</v>
       </c>
       <c r="B134">
@@ -3812,7 +3832,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="11" t="s">
         <v>134</v>
       </c>
       <c r="B135">
@@ -3835,7 +3855,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="11" t="s">
         <v>135</v>
       </c>
       <c r="B136">
@@ -3858,7 +3878,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="11" t="s">
         <v>136</v>
       </c>
       <c r="B137">
@@ -3881,7 +3901,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="11" t="s">
         <v>137</v>
       </c>
       <c r="B138">
@@ -3904,7 +3924,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="11" t="s">
         <v>138</v>
       </c>
       <c r="B139">
@@ -3927,7 +3947,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="11" t="s">
         <v>139</v>
       </c>
       <c r="B140">
@@ -3950,7 +3970,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="11" t="s">
         <v>140</v>
       </c>
       <c r="B141">
@@ -3973,7 +3993,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="11" t="s">
         <v>141</v>
       </c>
       <c r="B142">
@@ -3996,7 +4016,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="11" t="s">
         <v>142</v>
       </c>
       <c r="B143">
@@ -4019,7 +4039,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B144">
@@ -4042,7 +4062,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B145">
@@ -4065,7 +4085,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="11" t="s">
         <v>145</v>
       </c>
       <c r="B146">
@@ -4088,7 +4108,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="11" t="s">
         <v>146</v>
       </c>
       <c r="B147">
@@ -4111,7 +4131,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="11" t="s">
         <v>147</v>
       </c>
       <c r="B148">
@@ -4134,7 +4154,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="11" t="s">
         <v>148</v>
       </c>
       <c r="B149">
@@ -4157,7 +4177,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="11" t="s">
         <v>149</v>
       </c>
       <c r="B150">
@@ -4180,7 +4200,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="11" t="s">
         <v>150</v>
       </c>
       <c r="B151">
@@ -4203,7 +4223,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="11" t="s">
         <v>151</v>
       </c>
       <c r="B152">
@@ -4226,7 +4246,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="11" t="s">
         <v>152</v>
       </c>
       <c r="B153">
@@ -4249,7 +4269,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="11" t="s">
         <v>153</v>
       </c>
       <c r="B154">
@@ -4272,7 +4292,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="11" t="s">
         <v>154</v>
       </c>
       <c r="B155">
@@ -4295,7 +4315,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="11" t="s">
         <v>155</v>
       </c>
       <c r="B156">
@@ -4318,7 +4338,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="11" t="s">
         <v>156</v>
       </c>
       <c r="B157">
@@ -4341,7 +4361,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="11" t="s">
         <v>157</v>
       </c>
       <c r="B158">
@@ -4364,7 +4384,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="11" t="s">
         <v>158</v>
       </c>
       <c r="B159">
@@ -4387,7 +4407,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="11" t="s">
         <v>159</v>
       </c>
       <c r="B160">
@@ -4410,7 +4430,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="11" t="s">
         <v>160</v>
       </c>
       <c r="B161">
@@ -4433,7 +4453,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="11" t="s">
         <v>161</v>
       </c>
       <c r="B162">
@@ -4456,7 +4476,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="11" t="s">
         <v>162</v>
       </c>
       <c r="B163">
@@ -4479,7 +4499,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="11" t="s">
         <v>163</v>
       </c>
       <c r="B164">
@@ -4502,7 +4522,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="11" t="s">
         <v>164</v>
       </c>
       <c r="B165">
@@ -4525,7 +4545,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="11" t="s">
         <v>165</v>
       </c>
       <c r="B166">
@@ -4548,7 +4568,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="11" t="s">
         <v>166</v>
       </c>
       <c r="B167">
@@ -4571,7 +4591,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="11" t="s">
         <v>167</v>
       </c>
       <c r="B168">
@@ -4594,7 +4614,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="11" t="s">
         <v>168</v>
       </c>
       <c r="B169">
@@ -4617,7 +4637,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="11" t="s">
         <v>169</v>
       </c>
       <c r="B170">
@@ -4640,7 +4660,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="11" t="s">
         <v>170</v>
       </c>
       <c r="B171">
@@ -4663,7 +4683,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="11" t="s">
         <v>171</v>
       </c>
       <c r="B172">
@@ -4686,7 +4706,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="11" t="s">
         <v>172</v>
       </c>
       <c r="B173">
@@ -4709,7 +4729,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="11" t="s">
         <v>173</v>
       </c>
       <c r="B174">
@@ -4732,7 +4752,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="11" t="s">
         <v>174</v>
       </c>
       <c r="B175">
@@ -4755,7 +4775,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="11" t="s">
         <v>175</v>
       </c>
       <c r="B176">
@@ -4778,7 +4798,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="11" t="s">
         <v>176</v>
       </c>
       <c r="B177">
@@ -4801,7 +4821,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="11" t="s">
         <v>177</v>
       </c>
       <c r="B178">
@@ -4824,7 +4844,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="11" t="s">
         <v>178</v>
       </c>
       <c r="B179">
@@ -4847,7 +4867,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="11" t="s">
         <v>179</v>
       </c>
       <c r="B180">
@@ -4870,7 +4890,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="11" t="s">
         <v>180</v>
       </c>
       <c r="B181">
@@ -4893,7 +4913,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="11" t="s">
         <v>181</v>
       </c>
       <c r="B182">
@@ -4916,7 +4936,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="11" t="s">
         <v>182</v>
       </c>
       <c r="B183">
@@ -4939,7 +4959,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="11" t="s">
         <v>183</v>
       </c>
       <c r="B184">
@@ -4962,7 +4982,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="11" t="s">
         <v>184</v>
       </c>
       <c r="B185">
@@ -4985,7 +5005,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="11" t="s">
         <v>185</v>
       </c>
       <c r="B186">
@@ -5008,7 +5028,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="11" t="s">
         <v>186</v>
       </c>
       <c r="B187">
@@ -5031,7 +5051,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="11" t="s">
         <v>187</v>
       </c>
       <c r="B188">
@@ -5054,7 +5074,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="11" t="s">
         <v>188</v>
       </c>
       <c r="B189">
@@ -5077,7 +5097,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="11" t="s">
         <v>189</v>
       </c>
       <c r="B190">
@@ -5100,7 +5120,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="11" t="s">
         <v>190</v>
       </c>
       <c r="B191">
@@ -5123,7 +5143,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="11" t="s">
         <v>191</v>
       </c>
       <c r="B192">
@@ -5146,7 +5166,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="11" t="s">
         <v>192</v>
       </c>
       <c r="B193">
@@ -5169,7 +5189,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="11" t="s">
         <v>193</v>
       </c>
       <c r="B194">
@@ -5192,7 +5212,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="11" t="s">
         <v>194</v>
       </c>
       <c r="B195">
@@ -5215,7 +5235,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="11" t="s">
         <v>195</v>
       </c>
       <c r="B196">
@@ -5238,7 +5258,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="11" t="s">
         <v>196</v>
       </c>
       <c r="B197">
@@ -5261,7 +5281,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="11" t="s">
         <v>197</v>
       </c>
       <c r="B198">
@@ -5284,7 +5304,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="11" t="s">
         <v>198</v>
       </c>
       <c r="B199">
@@ -5307,7 +5327,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="11" t="s">
         <v>199</v>
       </c>
       <c r="B200">
@@ -5330,7 +5350,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="11" t="s">
         <v>200</v>
       </c>
       <c r="B201">
@@ -5353,7 +5373,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="11" t="s">
         <v>201</v>
       </c>
       <c r="B202">
@@ -5376,7 +5396,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="11" t="s">
         <v>202</v>
       </c>
       <c r="B203">
@@ -5399,7 +5419,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="11" t="s">
         <v>203</v>
       </c>
       <c r="B204">
@@ -5422,7 +5442,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="11" t="s">
         <v>204</v>
       </c>
       <c r="B205">
@@ -5445,7 +5465,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="11" t="s">
         <v>205</v>
       </c>
       <c r="B206">
@@ -5468,7 +5488,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="11" t="s">
         <v>206</v>
       </c>
       <c r="B207">
@@ -5491,7 +5511,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="11" t="s">
         <v>207</v>
       </c>
       <c r="B208">
@@ -5514,7 +5534,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="11" t="s">
         <v>208</v>
       </c>
       <c r="B209">
@@ -5537,7 +5557,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="11" t="s">
         <v>209</v>
       </c>
       <c r="B210">
@@ -5560,7 +5580,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="11" t="s">
         <v>210</v>
       </c>
       <c r="B211">
@@ -5583,7 +5603,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="11" t="s">
         <v>211</v>
       </c>
       <c r="B212">
@@ -5606,7 +5626,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="11" t="s">
         <v>212</v>
       </c>
       <c r="B213">

--- a/SourceDataTables/FigS13.xlsx
+++ b/SourceDataTables/FigS13.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="219">
   <si>
     <t>Gene</t>
   </si>
@@ -690,7 +690,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -710,11 +710,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -728,6 +730,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,30 +754,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -796,7 +800,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -819,7 +823,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -842,7 +846,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -865,7 +869,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -888,7 +892,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -911,7 +915,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -934,7 +938,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -957,7 +961,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -980,7 +984,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1003,7 +1007,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1026,7 +1030,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1049,7 +1053,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -1072,7 +1076,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1095,7 +1099,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1118,7 +1122,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1141,7 +1145,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1164,7 +1168,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1187,7 +1191,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1210,7 +1214,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1233,7 +1237,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1256,7 +1260,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1279,7 +1283,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1302,7 +1306,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -1325,7 +1329,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -1348,7 +1352,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -1371,7 +1375,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -1394,7 +1398,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -1417,7 +1421,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -1440,7 +1444,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -1463,7 +1467,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -1486,7 +1490,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -1509,7 +1513,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -1532,7 +1536,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -1555,7 +1559,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -1578,7 +1582,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -1601,7 +1605,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -1624,7 +1628,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -1647,7 +1651,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -1670,7 +1674,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -1693,7 +1697,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -1716,7 +1720,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -1739,7 +1743,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -1762,7 +1766,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -1785,7 +1789,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -1808,7 +1812,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -1831,7 +1835,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -1854,7 +1858,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -1877,7 +1881,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -1900,7 +1904,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -1923,7 +1927,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -1946,7 +1950,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -1969,7 +1973,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -1992,7 +1996,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -2015,7 +2019,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -2038,7 +2042,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -2061,7 +2065,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -2084,7 +2088,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -2107,7 +2111,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -2130,7 +2134,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -2153,7 +2157,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -2176,7 +2180,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -2199,7 +2203,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -2222,7 +2226,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -2245,7 +2249,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -2268,7 +2272,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -2291,7 +2295,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -2314,7 +2318,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -2337,7 +2341,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="13" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -2360,7 +2364,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -2383,7 +2387,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -2406,7 +2410,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -2429,7 +2433,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="13" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -2452,7 +2456,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -2475,7 +2479,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="13" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -2498,7 +2502,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -2521,7 +2525,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="13" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -2544,7 +2548,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="13" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -2567,7 +2571,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="13" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -2590,7 +2594,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -2613,7 +2617,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="13" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -2636,7 +2640,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B83">
@@ -2659,7 +2663,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="13" t="s">
         <v>83</v>
       </c>
       <c r="B84">
@@ -2682,7 +2686,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B85">
@@ -2705,7 +2709,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="13" t="s">
         <v>85</v>
       </c>
       <c r="B86">
@@ -2728,7 +2732,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="13" t="s">
         <v>86</v>
       </c>
       <c r="B87">
@@ -2751,7 +2755,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="13" t="s">
         <v>87</v>
       </c>
       <c r="B88">
@@ -2774,7 +2778,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B89">
@@ -2797,7 +2801,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B90">
@@ -2820,7 +2824,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B91">
@@ -2843,7 +2847,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B92">
@@ -2866,7 +2870,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -2889,7 +2893,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="13" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -2912,7 +2916,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="13" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -2935,7 +2939,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B96">
@@ -2958,7 +2962,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="13" t="s">
         <v>96</v>
       </c>
       <c r="B97">
@@ -2981,7 +2985,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B98">
@@ -3004,7 +3008,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="13" t="s">
         <v>98</v>
       </c>
       <c r="B99">
@@ -3027,7 +3031,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="13" t="s">
         <v>99</v>
       </c>
       <c r="B100">
@@ -3050,7 +3054,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="13" t="s">
         <v>100</v>
       </c>
       <c r="B101">
@@ -3073,7 +3077,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="13" t="s">
         <v>101</v>
       </c>
       <c r="B102">
@@ -3096,7 +3100,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="13" t="s">
         <v>102</v>
       </c>
       <c r="B103">
@@ -3119,7 +3123,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="13" t="s">
         <v>103</v>
       </c>
       <c r="B104">
@@ -3142,7 +3146,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="13" t="s">
         <v>104</v>
       </c>
       <c r="B105">
@@ -3165,7 +3169,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="13" t="s">
         <v>105</v>
       </c>
       <c r="B106">
@@ -3188,7 +3192,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="11" t="s">
+      <c r="A107" s="13" t="s">
         <v>106</v>
       </c>
       <c r="B107">
@@ -3211,7 +3215,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="11" t="s">
+      <c r="A108" s="13" t="s">
         <v>107</v>
       </c>
       <c r="B108">
@@ -3234,7 +3238,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="13" t="s">
         <v>108</v>
       </c>
       <c r="B109">
@@ -3257,7 +3261,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="13" t="s">
         <v>109</v>
       </c>
       <c r="B110">
@@ -3280,7 +3284,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="13" t="s">
         <v>110</v>
       </c>
       <c r="B111">
@@ -3303,7 +3307,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="11" t="s">
+      <c r="A112" s="13" t="s">
         <v>111</v>
       </c>
       <c r="B112">
@@ -3326,7 +3330,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="13" t="s">
         <v>112</v>
       </c>
       <c r="B113">
@@ -3349,7 +3353,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="11" t="s">
+      <c r="A114" s="13" t="s">
         <v>113</v>
       </c>
       <c r="B114">
@@ -3372,7 +3376,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="11" t="s">
+      <c r="A115" s="13" t="s">
         <v>114</v>
       </c>
       <c r="B115">
@@ -3395,7 +3399,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="13" t="s">
         <v>115</v>
       </c>
       <c r="B116">
@@ -3418,7 +3422,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="11" t="s">
+      <c r="A117" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B117">
@@ -3441,7 +3445,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="11" t="s">
+      <c r="A118" s="13" t="s">
         <v>117</v>
       </c>
       <c r="B118">
@@ -3464,7 +3468,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="13" t="s">
         <v>118</v>
       </c>
       <c r="B119">
@@ -3487,7 +3491,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B120">
@@ -3510,7 +3514,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B121">
@@ -3533,7 +3537,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="11" t="s">
+      <c r="A122" s="13" t="s">
         <v>121</v>
       </c>
       <c r="B122">
@@ -3556,7 +3560,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="13" t="s">
         <v>122</v>
       </c>
       <c r="B123">
@@ -3579,7 +3583,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="13" t="s">
         <v>123</v>
       </c>
       <c r="B124">
@@ -3602,7 +3606,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="11" t="s">
+      <c r="A125" s="13" t="s">
         <v>124</v>
       </c>
       <c r="B125">
@@ -3625,7 +3629,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="11" t="s">
+      <c r="A126" s="13" t="s">
         <v>125</v>
       </c>
       <c r="B126">
@@ -3648,7 +3652,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="11" t="s">
+      <c r="A127" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B127">
@@ -3671,7 +3675,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="11" t="s">
+      <c r="A128" s="13" t="s">
         <v>127</v>
       </c>
       <c r="B128">
@@ -3694,7 +3698,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="13" t="s">
         <v>128</v>
       </c>
       <c r="B129">
@@ -3717,7 +3721,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="11" t="s">
+      <c r="A130" s="13" t="s">
         <v>129</v>
       </c>
       <c r="B130">
@@ -3740,7 +3744,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="13" t="s">
         <v>130</v>
       </c>
       <c r="B131">
@@ -3763,7 +3767,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="11" t="s">
+      <c r="A132" s="13" t="s">
         <v>131</v>
       </c>
       <c r="B132">
@@ -3786,7 +3790,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="11" t="s">
+      <c r="A133" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B133">
@@ -3809,7 +3813,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="11" t="s">
+      <c r="A134" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B134">
@@ -3832,7 +3836,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="11" t="s">
+      <c r="A135" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B135">
@@ -3855,7 +3859,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="11" t="s">
+      <c r="A136" s="13" t="s">
         <v>135</v>
       </c>
       <c r="B136">
@@ -3878,7 +3882,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="11" t="s">
+      <c r="A137" s="13" t="s">
         <v>136</v>
       </c>
       <c r="B137">
@@ -3901,7 +3905,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="11" t="s">
+      <c r="A138" s="13" t="s">
         <v>137</v>
       </c>
       <c r="B138">
@@ -3924,7 +3928,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="11" t="s">
+      <c r="A139" s="13" t="s">
         <v>138</v>
       </c>
       <c r="B139">
@@ -3947,7 +3951,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="11" t="s">
+      <c r="A140" s="13" t="s">
         <v>139</v>
       </c>
       <c r="B140">
@@ -3970,7 +3974,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="11" t="s">
+      <c r="A141" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B141">
@@ -3993,7 +3997,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="11" t="s">
+      <c r="A142" s="13" t="s">
         <v>141</v>
       </c>
       <c r="B142">
@@ -4016,7 +4020,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="11" t="s">
+      <c r="A143" s="13" t="s">
         <v>142</v>
       </c>
       <c r="B143">
@@ -4039,7 +4043,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="11" t="s">
+      <c r="A144" s="13" t="s">
         <v>143</v>
       </c>
       <c r="B144">
@@ -4062,7 +4066,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="11" t="s">
+      <c r="A145" s="13" t="s">
         <v>144</v>
       </c>
       <c r="B145">
@@ -4085,7 +4089,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="11" t="s">
+      <c r="A146" s="13" t="s">
         <v>145</v>
       </c>
       <c r="B146">
@@ -4108,7 +4112,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="11" t="s">
+      <c r="A147" s="13" t="s">
         <v>146</v>
       </c>
       <c r="B147">
@@ -4131,7 +4135,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="11" t="s">
+      <c r="A148" s="13" t="s">
         <v>147</v>
       </c>
       <c r="B148">
@@ -4154,7 +4158,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="11" t="s">
+      <c r="A149" s="13" t="s">
         <v>148</v>
       </c>
       <c r="B149">
@@ -4177,7 +4181,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="11" t="s">
+      <c r="A150" s="13" t="s">
         <v>149</v>
       </c>
       <c r="B150">
@@ -4200,7 +4204,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="11" t="s">
+      <c r="A151" s="13" t="s">
         <v>150</v>
       </c>
       <c r="B151">
@@ -4223,7 +4227,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="11" t="s">
+      <c r="A152" s="13" t="s">
         <v>151</v>
       </c>
       <c r="B152">
@@ -4246,7 +4250,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="11" t="s">
+      <c r="A153" s="13" t="s">
         <v>152</v>
       </c>
       <c r="B153">
@@ -4269,7 +4273,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="11" t="s">
+      <c r="A154" s="13" t="s">
         <v>153</v>
       </c>
       <c r="B154">
@@ -4292,7 +4296,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="11" t="s">
+      <c r="A155" s="13" t="s">
         <v>154</v>
       </c>
       <c r="B155">
@@ -4315,7 +4319,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="11" t="s">
+      <c r="A156" s="13" t="s">
         <v>155</v>
       </c>
       <c r="B156">
@@ -4338,7 +4342,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="11" t="s">
+      <c r="A157" s="13" t="s">
         <v>156</v>
       </c>
       <c r="B157">
@@ -4361,7 +4365,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="11" t="s">
+      <c r="A158" s="13" t="s">
         <v>157</v>
       </c>
       <c r="B158">
@@ -4384,7 +4388,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="11" t="s">
+      <c r="A159" s="13" t="s">
         <v>158</v>
       </c>
       <c r="B159">
@@ -4407,7 +4411,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="11" t="s">
+      <c r="A160" s="13" t="s">
         <v>159</v>
       </c>
       <c r="B160">
@@ -4430,7 +4434,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="11" t="s">
+      <c r="A161" s="13" t="s">
         <v>160</v>
       </c>
       <c r="B161">
@@ -4453,7 +4457,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="11" t="s">
+      <c r="A162" s="13" t="s">
         <v>161</v>
       </c>
       <c r="B162">
@@ -4476,7 +4480,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="11" t="s">
+      <c r="A163" s="13" t="s">
         <v>162</v>
       </c>
       <c r="B163">
@@ -4499,7 +4503,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="11" t="s">
+      <c r="A164" s="13" t="s">
         <v>163</v>
       </c>
       <c r="B164">
@@ -4522,7 +4526,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="11" t="s">
+      <c r="A165" s="13" t="s">
         <v>164</v>
       </c>
       <c r="B165">
@@ -4545,7 +4549,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="11" t="s">
+      <c r="A166" s="13" t="s">
         <v>165</v>
       </c>
       <c r="B166">
@@ -4568,7 +4572,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="11" t="s">
+      <c r="A167" s="13" t="s">
         <v>166</v>
       </c>
       <c r="B167">
@@ -4591,7 +4595,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="11" t="s">
+      <c r="A168" s="13" t="s">
         <v>167</v>
       </c>
       <c r="B168">
@@ -4614,7 +4618,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="11" t="s">
+      <c r="A169" s="13" t="s">
         <v>168</v>
       </c>
       <c r="B169">
@@ -4637,7 +4641,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="11" t="s">
+      <c r="A170" s="13" t="s">
         <v>169</v>
       </c>
       <c r="B170">
@@ -4660,7 +4664,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="11" t="s">
+      <c r="A171" s="13" t="s">
         <v>170</v>
       </c>
       <c r="B171">
@@ -4683,7 +4687,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="11" t="s">
+      <c r="A172" s="13" t="s">
         <v>171</v>
       </c>
       <c r="B172">
@@ -4706,7 +4710,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="11" t="s">
+      <c r="A173" s="13" t="s">
         <v>172</v>
       </c>
       <c r="B173">
@@ -4729,7 +4733,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="11" t="s">
+      <c r="A174" s="13" t="s">
         <v>173</v>
       </c>
       <c r="B174">
@@ -4752,7 +4756,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="11" t="s">
+      <c r="A175" s="13" t="s">
         <v>174</v>
       </c>
       <c r="B175">
@@ -4775,7 +4779,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="11" t="s">
+      <c r="A176" s="13" t="s">
         <v>175</v>
       </c>
       <c r="B176">
@@ -4798,7 +4802,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="11" t="s">
+      <c r="A177" s="13" t="s">
         <v>176</v>
       </c>
       <c r="B177">
@@ -4821,7 +4825,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="11" t="s">
+      <c r="A178" s="13" t="s">
         <v>177</v>
       </c>
       <c r="B178">
@@ -4844,7 +4848,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="11" t="s">
+      <c r="A179" s="13" t="s">
         <v>178</v>
       </c>
       <c r="B179">
@@ -4867,7 +4871,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="11" t="s">
+      <c r="A180" s="13" t="s">
         <v>179</v>
       </c>
       <c r="B180">
@@ -4890,7 +4894,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="11" t="s">
+      <c r="A181" s="13" t="s">
         <v>180</v>
       </c>
       <c r="B181">
@@ -4913,7 +4917,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="11" t="s">
+      <c r="A182" s="13" t="s">
         <v>181</v>
       </c>
       <c r="B182">
@@ -4936,7 +4940,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="11" t="s">
+      <c r="A183" s="13" t="s">
         <v>182</v>
       </c>
       <c r="B183">
@@ -4959,7 +4963,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="11" t="s">
+      <c r="A184" s="13" t="s">
         <v>183</v>
       </c>
       <c r="B184">
@@ -4982,7 +4986,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="11" t="s">
+      <c r="A185" s="13" t="s">
         <v>184</v>
       </c>
       <c r="B185">
@@ -5005,7 +5009,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="11" t="s">
+      <c r="A186" s="13" t="s">
         <v>185</v>
       </c>
       <c r="B186">
@@ -5028,7 +5032,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="11" t="s">
+      <c r="A187" s="13" t="s">
         <v>186</v>
       </c>
       <c r="B187">
@@ -5051,7 +5055,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="11" t="s">
+      <c r="A188" s="13" t="s">
         <v>187</v>
       </c>
       <c r="B188">
@@ -5074,7 +5078,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="11" t="s">
+      <c r="A189" s="13" t="s">
         <v>188</v>
       </c>
       <c r="B189">
@@ -5097,7 +5101,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="11" t="s">
+      <c r="A190" s="13" t="s">
         <v>189</v>
       </c>
       <c r="B190">
@@ -5120,7 +5124,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="11" t="s">
+      <c r="A191" s="13" t="s">
         <v>190</v>
       </c>
       <c r="B191">
@@ -5143,7 +5147,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="11" t="s">
+      <c r="A192" s="13" t="s">
         <v>191</v>
       </c>
       <c r="B192">
@@ -5166,7 +5170,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="11" t="s">
+      <c r="A193" s="13" t="s">
         <v>192</v>
       </c>
       <c r="B193">
@@ -5189,7 +5193,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="11" t="s">
+      <c r="A194" s="13" t="s">
         <v>193</v>
       </c>
       <c r="B194">
@@ -5212,7 +5216,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="11" t="s">
+      <c r="A195" s="13" t="s">
         <v>194</v>
       </c>
       <c r="B195">
@@ -5235,7 +5239,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="11" t="s">
+      <c r="A196" s="13" t="s">
         <v>195</v>
       </c>
       <c r="B196">
@@ -5258,7 +5262,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="11" t="s">
+      <c r="A197" s="13" t="s">
         <v>196</v>
       </c>
       <c r="B197">
@@ -5281,7 +5285,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="11" t="s">
+      <c r="A198" s="13" t="s">
         <v>197</v>
       </c>
       <c r="B198">
@@ -5304,7 +5308,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="11" t="s">
+      <c r="A199" s="13" t="s">
         <v>198</v>
       </c>
       <c r="B199">
@@ -5327,7 +5331,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="11" t="s">
+      <c r="A200" s="13" t="s">
         <v>199</v>
       </c>
       <c r="B200">
@@ -5350,7 +5354,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="11" t="s">
+      <c r="A201" s="13" t="s">
         <v>200</v>
       </c>
       <c r="B201">
@@ -5373,7 +5377,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="11" t="s">
+      <c r="A202" s="13" t="s">
         <v>201</v>
       </c>
       <c r="B202">
@@ -5396,7 +5400,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="11" t="s">
+      <c r="A203" s="13" t="s">
         <v>202</v>
       </c>
       <c r="B203">
@@ -5419,7 +5423,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="11" t="s">
+      <c r="A204" s="13" t="s">
         <v>203</v>
       </c>
       <c r="B204">
@@ -5442,7 +5446,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="11" t="s">
+      <c r="A205" s="13" t="s">
         <v>204</v>
       </c>
       <c r="B205">
@@ -5465,7 +5469,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="11" t="s">
+      <c r="A206" s="13" t="s">
         <v>205</v>
       </c>
       <c r="B206">
@@ -5488,7 +5492,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="11" t="s">
+      <c r="A207" s="13" t="s">
         <v>206</v>
       </c>
       <c r="B207">
@@ -5511,7 +5515,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="11" t="s">
+      <c r="A208" s="13" t="s">
         <v>207</v>
       </c>
       <c r="B208">
@@ -5534,7 +5538,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="11" t="s">
+      <c r="A209" s="13" t="s">
         <v>208</v>
       </c>
       <c r="B209">
@@ -5557,7 +5561,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="11" t="s">
+      <c r="A210" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B210">
@@ -5580,7 +5584,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="11" t="s">
+      <c r="A211" s="13" t="s">
         <v>210</v>
       </c>
       <c r="B211">
@@ -5603,7 +5607,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="11" t="s">
+      <c r="A212" s="13" t="s">
         <v>211</v>
       </c>
       <c r="B212">
@@ -5626,7 +5630,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="11" t="s">
+      <c r="A213" s="13" t="s">
         <v>212</v>
       </c>
       <c r="B213">

--- a/SourceDataTables/FigS13.xlsx
+++ b/SourceDataTables/FigS13.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>Gene</t>
   </si>
@@ -24,634 +24,634 @@
     <t>OLIG2</t>
   </si>
   <si>
+    <t>BASP1</t>
+  </si>
+  <si>
+    <t>PNPLA5</t>
+  </si>
+  <si>
+    <t>GPRIN1</t>
+  </si>
+  <si>
+    <t>AKAP14</t>
+  </si>
+  <si>
+    <t>C1orf216</t>
+  </si>
+  <si>
+    <t>ADAM29</t>
+  </si>
+  <si>
+    <t>BEST3</t>
+  </si>
+  <si>
+    <t>EFNB3</t>
+  </si>
+  <si>
+    <t>RCAN2</t>
+  </si>
+  <si>
+    <t>CACNG3</t>
+  </si>
+  <si>
+    <t>MAGEC3</t>
+  </si>
+  <si>
+    <t>DSCAM</t>
+  </si>
+  <si>
+    <t>APC2</t>
+  </si>
+  <si>
+    <t>CDH2</t>
+  </si>
+  <si>
+    <t>TSPAN19</t>
+  </si>
+  <si>
+    <t>COL9A3</t>
+  </si>
+  <si>
+    <t>DCT</t>
+  </si>
+  <si>
+    <t>C1orf64</t>
+  </si>
+  <si>
+    <t>RTN3</t>
+  </si>
+  <si>
+    <t>ZCCHC12</t>
+  </si>
+  <si>
+    <t>DLX2</t>
+  </si>
+  <si>
+    <t>KIAA1024L</t>
+  </si>
+  <si>
+    <t>NPM2</t>
+  </si>
+  <si>
+    <t>PNLDC1</t>
+  </si>
+  <si>
+    <t>CDH18</t>
+  </si>
+  <si>
+    <t>C3orf22</t>
+  </si>
+  <si>
+    <t>C9orf131</t>
+  </si>
+  <si>
+    <t>WDR49</t>
+  </si>
+  <si>
+    <t>CACNG2</t>
+  </si>
+  <si>
+    <t>ADD2</t>
+  </si>
+  <si>
+    <t>LRRN2</t>
+  </si>
+  <si>
+    <t>SLC9A6</t>
+  </si>
+  <si>
+    <t>CAP2</t>
+  </si>
+  <si>
+    <t>HCN4</t>
+  </si>
+  <si>
+    <t>SNX31</t>
+  </si>
+  <si>
+    <t>ACOT7</t>
+  </si>
+  <si>
+    <t>C1orf87</t>
+  </si>
+  <si>
+    <t>OTOS</t>
+  </si>
+  <si>
+    <t>DGKB</t>
+  </si>
+  <si>
+    <t>RASL10A</t>
+  </si>
+  <si>
+    <t>DMRT2</t>
+  </si>
+  <si>
+    <t>KHDRBS3</t>
+  </si>
+  <si>
+    <t>KLF1</t>
+  </si>
+  <si>
+    <t>CGREF1</t>
+  </si>
+  <si>
+    <t>CSPG5</t>
+  </si>
+  <si>
+    <t>DLL3</t>
+  </si>
+  <si>
+    <t>PNMA2</t>
+  </si>
+  <si>
+    <t>DMRT1</t>
+  </si>
+  <si>
+    <t>SLC32A1</t>
+  </si>
+  <si>
+    <t>FUT9</t>
+  </si>
+  <si>
+    <t>CRHR1</t>
+  </si>
+  <si>
+    <t>ADCY1</t>
+  </si>
+  <si>
+    <t>EEF1A2</t>
+  </si>
+  <si>
+    <t>FAM81A</t>
+  </si>
+  <si>
+    <t>COL11A1</t>
+  </si>
+  <si>
+    <t>EFHB</t>
+  </si>
+  <si>
+    <t>PRICKLE2</t>
+  </si>
+  <si>
+    <t>RFPL3</t>
+  </si>
+  <si>
+    <t>PRUNE2</t>
+  </si>
+  <si>
+    <t>LINGO2</t>
+  </si>
+  <si>
+    <t>KRT222</t>
+  </si>
+  <si>
+    <t>PTTG2</t>
+  </si>
+  <si>
+    <t>CHL1</t>
+  </si>
+  <si>
+    <t>ADCY2</t>
+  </si>
+  <si>
+    <t>NCAN</t>
+  </si>
+  <si>
+    <t>GJB6</t>
+  </si>
+  <si>
+    <t>NXPH2</t>
+  </si>
+  <si>
+    <t>SYT2</t>
+  </si>
+  <si>
+    <t>CPLX2</t>
+  </si>
+  <si>
+    <t>CYP46A1</t>
+  </si>
+  <si>
+    <t>SLC22A7</t>
+  </si>
+  <si>
+    <t>TMEM74</t>
+  </si>
+  <si>
+    <t>NUDT10</t>
+  </si>
+  <si>
+    <t>LRRC38</t>
+  </si>
+  <si>
+    <t>ACTL7A</t>
+  </si>
+  <si>
+    <t>UPP2</t>
+  </si>
+  <si>
+    <t>NKAIN2</t>
+  </si>
+  <si>
+    <t>DAB1</t>
+  </si>
+  <si>
+    <t>SMYD1</t>
+  </si>
+  <si>
+    <t>WASF3</t>
+  </si>
+  <si>
+    <t>GPR75</t>
+  </si>
+  <si>
+    <t>MLLT11</t>
+  </si>
+  <si>
+    <t>SDS</t>
+  </si>
+  <si>
+    <t>CCDC85B</t>
+  </si>
+  <si>
+    <t>LIX1</t>
+  </si>
+  <si>
+    <t>VAX1</t>
+  </si>
+  <si>
+    <t>VSTM2L</t>
+  </si>
+  <si>
+    <t>ADAP1</t>
+  </si>
+  <si>
+    <t>LECT1</t>
+  </si>
+  <si>
+    <t>ADRA1B</t>
+  </si>
+  <si>
+    <t>RAPGEF4</t>
+  </si>
+  <si>
+    <t>GPR139</t>
+  </si>
+  <si>
+    <t>HSF2BP</t>
+  </si>
+  <si>
+    <t>DPYSL2</t>
+  </si>
+  <si>
+    <t>GALNTL5</t>
+  </si>
+  <si>
+    <t>CHGA</t>
+  </si>
+  <si>
+    <t>CHGB</t>
+  </si>
+  <si>
+    <t>TMEM170B</t>
+  </si>
+  <si>
+    <t>PTPRT</t>
+  </si>
+  <si>
+    <t>TTLL8</t>
+  </si>
+  <si>
+    <t>FAM78B</t>
+  </si>
+  <si>
+    <t>CHI3L1</t>
+  </si>
+  <si>
+    <t>SOX21</t>
+  </si>
+  <si>
+    <t>LZTS1</t>
+  </si>
+  <si>
+    <t>DUSP8</t>
+  </si>
+  <si>
+    <t>AMZ1</t>
+  </si>
+  <si>
+    <t>PADI2</t>
+  </si>
+  <si>
+    <t>CDH9</t>
+  </si>
+  <si>
+    <t>PRRT2</t>
+  </si>
+  <si>
+    <t>NXPH3</t>
+  </si>
+  <si>
+    <t>DRD1</t>
+  </si>
+  <si>
+    <t>GPR45</t>
+  </si>
+  <si>
+    <t>HRH3</t>
+  </si>
+  <si>
+    <t>SLITRK4</t>
+  </si>
+  <si>
+    <t>GALNT13</t>
+  </si>
+  <si>
+    <t>CNGB1</t>
+  </si>
+  <si>
+    <t>ADIG</t>
+  </si>
+  <si>
+    <t>POU6F2</t>
+  </si>
+  <si>
+    <t>C2orf73</t>
+  </si>
+  <si>
+    <t>ADORA1</t>
+  </si>
+  <si>
+    <t>GLB1L3</t>
+  </si>
+  <si>
+    <t>ZNRF4</t>
+  </si>
+  <si>
+    <t>RFTN2</t>
+  </si>
+  <si>
+    <t>CCDC151</t>
+  </si>
+  <si>
+    <t>COL11A2</t>
+  </si>
+  <si>
+    <t>CIDEA</t>
+  </si>
+  <si>
+    <t>NR0B1</t>
+  </si>
+  <si>
+    <t>ENPP6</t>
+  </si>
+  <si>
+    <t>ADCY8</t>
+  </si>
+  <si>
+    <t>ADAMTS18</t>
+  </si>
+  <si>
+    <t>CYP17A1</t>
+  </si>
+  <si>
+    <t>CHRM4</t>
+  </si>
+  <si>
+    <t>CRYAB</t>
+  </si>
+  <si>
+    <t>CRH</t>
+  </si>
+  <si>
+    <t>IGSF11</t>
+  </si>
+  <si>
+    <t>TDRD9</t>
+  </si>
+  <si>
+    <t>EXD1</t>
+  </si>
+  <si>
+    <t>CHRM1</t>
+  </si>
+  <si>
+    <t>CHRNB3</t>
+  </si>
+  <si>
+    <t>FRMPD2</t>
+  </si>
+  <si>
+    <t>CGB2</t>
+  </si>
+  <si>
+    <t>LMTK3</t>
+  </si>
+  <si>
+    <t>CSMD2</t>
+  </si>
+  <si>
+    <t>XKR4</t>
+  </si>
+  <si>
+    <t>FMNL2</t>
+  </si>
+  <si>
+    <t>BMPER</t>
+  </si>
+  <si>
+    <t>CPNE9</t>
+  </si>
+  <si>
+    <t>ADRA1D</t>
+  </si>
+  <si>
+    <t>SLITRK1</t>
+  </si>
+  <si>
+    <t>SORCS1</t>
+  </si>
+  <si>
+    <t>PNMA5</t>
+  </si>
+  <si>
+    <t>TMEM174</t>
+  </si>
+  <si>
+    <t>CSAG1</t>
+  </si>
+  <si>
+    <t>TSGA13</t>
+  </si>
+  <si>
+    <t>SLC26A9</t>
+  </si>
+  <si>
+    <t>KNCN</t>
+  </si>
+  <si>
+    <t>CPNE4</t>
+  </si>
+  <si>
+    <t>CLU</t>
+  </si>
+  <si>
+    <t>CKB</t>
+  </si>
+  <si>
+    <t>SLC5A11</t>
+  </si>
+  <si>
+    <t>DIRC1</t>
+  </si>
+  <si>
+    <t>SCAMP5</t>
+  </si>
+  <si>
+    <t>CMTM5</t>
+  </si>
+  <si>
+    <t>C8orf34</t>
+  </si>
+  <si>
+    <t>ANKRD13B</t>
+  </si>
+  <si>
+    <t>SLC26A8</t>
+  </si>
+  <si>
+    <t>LYPD1</t>
+  </si>
+  <si>
+    <t>MED12L</t>
+  </si>
+  <si>
+    <t>WDR17</t>
+  </si>
+  <si>
+    <t>AGAP2</t>
+  </si>
+  <si>
+    <t>AGAP3</t>
+  </si>
+  <si>
+    <t>ADCYAP1R1</t>
+  </si>
+  <si>
+    <t>RXFP2</t>
+  </si>
+  <si>
+    <t>C10orf90</t>
+  </si>
+  <si>
+    <t>USH1C</t>
+  </si>
+  <si>
+    <t>BTBD16</t>
+  </si>
+  <si>
+    <t>RNF157</t>
+  </si>
+  <si>
+    <t>EDIL3</t>
+  </si>
+  <si>
+    <t>TSPAN5</t>
+  </si>
+  <si>
+    <t>FGFBP3</t>
+  </si>
+  <si>
+    <t>C17orf77</t>
+  </si>
+  <si>
+    <t>CABP7</t>
+  </si>
+  <si>
+    <t>CRYGA</t>
+  </si>
+  <si>
+    <t>CDH13</t>
+  </si>
+  <si>
+    <t>SGK2</t>
+  </si>
+  <si>
     <t>ATP8A1</t>
   </si>
   <si>
-    <t>CHADL</t>
-  </si>
-  <si>
-    <t>XKR4</t>
-  </si>
-  <si>
-    <t>CYP17A1</t>
-  </si>
-  <si>
-    <t>ZNF648</t>
-  </si>
-  <si>
-    <t>HSF2BP</t>
-  </si>
-  <si>
-    <t>TSPAN19</t>
-  </si>
-  <si>
-    <t>EFNA3</t>
-  </si>
-  <si>
-    <t>RCAN2</t>
-  </si>
-  <si>
-    <t>CACNG3</t>
-  </si>
-  <si>
-    <t>SLITRK4</t>
-  </si>
-  <si>
-    <t>DRP2</t>
-  </si>
-  <si>
-    <t>APC2</t>
-  </si>
-  <si>
-    <t>CDH2</t>
-  </si>
-  <si>
-    <t>GLT1D1</t>
-  </si>
-  <si>
-    <t>TRIM43</t>
+    <t>HORMAD2</t>
+  </si>
+  <si>
+    <t>RTP1</t>
+  </si>
+  <si>
+    <t>ATP9A</t>
+  </si>
+  <si>
+    <t>C3orf49</t>
+  </si>
+  <si>
+    <t>CBLN4</t>
+  </si>
+  <si>
+    <t>SLAIN1</t>
+  </si>
+  <si>
+    <t>CNP</t>
+  </si>
+  <si>
+    <t>ABI2</t>
+  </si>
+  <si>
+    <t>SP7</t>
+  </si>
+  <si>
+    <t>MORN4</t>
+  </si>
+  <si>
+    <t>FAM187B</t>
+  </si>
+  <si>
+    <t>PAQR4</t>
+  </si>
+  <si>
+    <t>ROPN1B</t>
+  </si>
+  <si>
+    <t>LONRF2</t>
+  </si>
+  <si>
+    <t>DIO2</t>
+  </si>
+  <si>
+    <t>CHN1</t>
+  </si>
+  <si>
+    <t>WIF1</t>
+  </si>
+  <si>
+    <t>CCDC27</t>
   </si>
   <si>
     <t>ZNF676</t>
   </si>
   <si>
-    <t>SHISA4</t>
-  </si>
-  <si>
-    <t>RTN3</t>
-  </si>
-  <si>
-    <t>SNX31</t>
-  </si>
-  <si>
-    <t>DLX1</t>
-  </si>
-  <si>
-    <t>KIAA1024L</t>
-  </si>
-  <si>
-    <t>NPM2</t>
-  </si>
-  <si>
-    <t>HDGFL1</t>
-  </si>
-  <si>
-    <t>CDH18</t>
-  </si>
-  <si>
-    <t>ROPN1B</t>
-  </si>
-  <si>
-    <t>ARID3C</t>
-  </si>
-  <si>
-    <t>EFHB</t>
-  </si>
-  <si>
-    <t>CACNG2</t>
-  </si>
-  <si>
-    <t>MORN4</t>
-  </si>
-  <si>
-    <t>OLFM1</t>
-  </si>
-  <si>
-    <t>LRRN2</t>
-  </si>
-  <si>
-    <t>C1orf61</t>
-  </si>
-  <si>
-    <t>HCN4</t>
-  </si>
-  <si>
-    <t>BMPER</t>
-  </si>
-  <si>
-    <t>CHRM5</t>
-  </si>
-  <si>
-    <t>C1orf216</t>
-  </si>
-  <si>
-    <t>SMYD1</t>
-  </si>
-  <si>
-    <t>PATE1</t>
-  </si>
-  <si>
-    <t>DPYSL4</t>
-  </si>
-  <si>
-    <t>RASL10A</t>
-  </si>
-  <si>
-    <t>DMRT2</t>
-  </si>
-  <si>
-    <t>KHDRBS3</t>
-  </si>
-  <si>
-    <t>KLF1</t>
-  </si>
-  <si>
-    <t>CGREF1</t>
-  </si>
-  <si>
-    <t>CSPG5</t>
-  </si>
-  <si>
-    <t>DLL3</t>
-  </si>
-  <si>
-    <t>DNM1</t>
-  </si>
-  <si>
-    <t>TCEAL2</t>
-  </si>
-  <si>
-    <t>PNMA2</t>
-  </si>
-  <si>
-    <t>CRHBP</t>
-  </si>
-  <si>
-    <t>FUT9</t>
-  </si>
-  <si>
-    <t>NR0B1</t>
-  </si>
-  <si>
-    <t>LRFN5</t>
-  </si>
-  <si>
-    <t>ICA1L</t>
-  </si>
-  <si>
-    <t>FAM19A4</t>
-  </si>
-  <si>
-    <t>SPTSSB</t>
-  </si>
-  <si>
-    <t>NRG3</t>
-  </si>
-  <si>
-    <t>ZNF483</t>
-  </si>
-  <si>
-    <t>CYP4A11</t>
-  </si>
-  <si>
-    <t>ANKRD13B</t>
-  </si>
-  <si>
-    <t>RFPL3</t>
-  </si>
-  <si>
-    <t>PTTG2</t>
-  </si>
-  <si>
-    <t>ARPP19</t>
-  </si>
-  <si>
-    <t>CMTM4</t>
-  </si>
-  <si>
-    <t>ADCY2</t>
-  </si>
-  <si>
-    <t>NXPH3</t>
-  </si>
-  <si>
-    <t>C1orf87</t>
-  </si>
-  <si>
-    <t>WASF3</t>
-  </si>
-  <si>
-    <t>CPLX1</t>
-  </si>
-  <si>
-    <t>CYP46A1</t>
-  </si>
-  <si>
-    <t>AMZ1</t>
-  </si>
-  <si>
-    <t>ARX</t>
-  </si>
-  <si>
-    <t>CNP</t>
-  </si>
-  <si>
-    <t>SLC22A7</t>
-  </si>
-  <si>
-    <t>FBXO41</t>
-  </si>
-  <si>
-    <t>PNLDC1</t>
-  </si>
-  <si>
-    <t>CYP26A1</t>
-  </si>
-  <si>
-    <t>PNPLA5</t>
-  </si>
-  <si>
-    <t>GJB6</t>
-  </si>
-  <si>
-    <t>RUNDC3A</t>
-  </si>
-  <si>
-    <t>GPR75</t>
-  </si>
-  <si>
-    <t>RAB40B</t>
-  </si>
-  <si>
-    <t>SDS</t>
-  </si>
-  <si>
-    <t>FREM3</t>
-  </si>
-  <si>
-    <t>CCDC85B</t>
-  </si>
-  <si>
-    <t>NKAIN4</t>
-  </si>
-  <si>
-    <t>VAX1</t>
-  </si>
-  <si>
-    <t>ADAP1</t>
-  </si>
-  <si>
-    <t>RTN4RL1</t>
-  </si>
-  <si>
-    <t>LECT1</t>
-  </si>
-  <si>
-    <t>PAQR4</t>
-  </si>
-  <si>
-    <t>TPPP</t>
-  </si>
-  <si>
-    <t>DPP6</t>
-  </si>
-  <si>
-    <t>C6orf118</t>
-  </si>
-  <si>
-    <t>KIF3A</t>
-  </si>
-  <si>
-    <t>CHGA</t>
-  </si>
-  <si>
-    <t>TMEM170B</t>
-  </si>
-  <si>
-    <t>CIT</t>
-  </si>
-  <si>
-    <t>CABP7</t>
-  </si>
-  <si>
-    <t>MANEAL</t>
-  </si>
-  <si>
-    <t>IL1RAPL1</t>
-  </si>
-  <si>
-    <t>CHI3L1</t>
-  </si>
-  <si>
-    <t>FAM107A</t>
-  </si>
-  <si>
-    <t>DTNA</t>
-  </si>
-  <si>
-    <t>ATP6V0E2</t>
-  </si>
-  <si>
-    <t>CHN1</t>
-  </si>
-  <si>
-    <t>CDH9</t>
-  </si>
-  <si>
-    <t>NXPH4</t>
-  </si>
-  <si>
-    <t>PRRT2</t>
-  </si>
-  <si>
-    <t>DPYSL2</t>
-  </si>
-  <si>
-    <t>NXPH2</t>
-  </si>
-  <si>
-    <t>GPR45</t>
-  </si>
-  <si>
-    <t>C9orf131</t>
-  </si>
-  <si>
-    <t>RNF157</t>
-  </si>
-  <si>
-    <t>KRT222</t>
-  </si>
-  <si>
-    <t>CTNNA2</t>
-  </si>
-  <si>
-    <t>CHRM1</t>
-  </si>
-  <si>
-    <t>NEU4</t>
-  </si>
-  <si>
-    <t>CAPSL</t>
-  </si>
-  <si>
-    <t>PHF21B</t>
+    <t>TBR1</t>
+  </si>
+  <si>
+    <t>AGBL1</t>
+  </si>
+  <si>
+    <t>KCNH8</t>
   </si>
   <si>
     <t>TTC9B</t>
   </si>
   <si>
-    <t>COL11A1</t>
-  </si>
-  <si>
-    <t>CKMT1B</t>
-  </si>
-  <si>
-    <t>RFTN2</t>
-  </si>
-  <si>
-    <t>OSBPL6</t>
-  </si>
-  <si>
-    <t>APLNR</t>
-  </si>
-  <si>
-    <t>TRAM1L1</t>
-  </si>
-  <si>
-    <t>CHRNA4</t>
-  </si>
-  <si>
-    <t>ADAMTS16</t>
-  </si>
-  <si>
-    <t>CSAG1</t>
-  </si>
-  <si>
-    <t>CHRM3</t>
-  </si>
-  <si>
-    <t>SIRPA</t>
-  </si>
-  <si>
-    <t>MAGEC3</t>
-  </si>
-  <si>
-    <t>CX3CR1</t>
-  </si>
-  <si>
-    <t>SLAIN1</t>
-  </si>
-  <si>
-    <t>OTUD7A</t>
-  </si>
-  <si>
-    <t>STX1B</t>
-  </si>
-  <si>
-    <t>SLC2A13</t>
-  </si>
-  <si>
-    <t>CRYM</t>
-  </si>
-  <si>
-    <t>PALM2</t>
-  </si>
-  <si>
-    <t>SLC22A9</t>
-  </si>
-  <si>
-    <t>LMTK3</t>
-  </si>
-  <si>
-    <t>CSMD2</t>
-  </si>
-  <si>
-    <t>KLHL32</t>
-  </si>
-  <si>
-    <t>GALNTL5</t>
-  </si>
-  <si>
-    <t>WDR49</t>
-  </si>
-  <si>
-    <t>FAM81A</t>
-  </si>
-  <si>
-    <t>TMEM132B</t>
-  </si>
-  <si>
-    <t>GALNT13</t>
-  </si>
-  <si>
-    <t>SORCS1</t>
-  </si>
-  <si>
-    <t>C5orf49</t>
-  </si>
-  <si>
-    <t>PRUNE2</t>
-  </si>
-  <si>
-    <t>GPRASP2</t>
-  </si>
-  <si>
-    <t>TSGA13</t>
-  </si>
-  <si>
-    <t>CCDC27</t>
-  </si>
-  <si>
     <t>C2orf50</t>
-  </si>
-  <si>
-    <t>ADD2</t>
-  </si>
-  <si>
-    <t>SLC26A9</t>
-  </si>
-  <si>
-    <t>CKB</t>
-  </si>
-  <si>
-    <t>SLC22A12</t>
-  </si>
-  <si>
-    <t>EEF1A2</t>
-  </si>
-  <si>
-    <t>PHACTR3</t>
-  </si>
-  <si>
-    <t>CMTM5</t>
-  </si>
-  <si>
-    <t>SEZ6</t>
-  </si>
-  <si>
-    <t>C8orf34</t>
-  </si>
-  <si>
-    <t>SLC26A8</t>
-  </si>
-  <si>
-    <t>OLIG1</t>
-  </si>
-  <si>
-    <t>MED12L</t>
-  </si>
-  <si>
-    <t>WDR17</t>
-  </si>
-  <si>
-    <t>AGAP2</t>
-  </si>
-  <si>
-    <t>AGAP3</t>
-  </si>
-  <si>
-    <t>ANO4</t>
-  </si>
-  <si>
-    <t>GPR62</t>
-  </si>
-  <si>
-    <t>USH1C</t>
-  </si>
-  <si>
-    <t>C10orf90</t>
-  </si>
-  <si>
-    <t>CCDC85A</t>
-  </si>
-  <si>
-    <t>EDIL3</t>
-  </si>
-  <si>
-    <t>TSPAN5</t>
-  </si>
-  <si>
-    <t>FRMPD2</t>
-  </si>
-  <si>
-    <t>MGAT5B</t>
-  </si>
-  <si>
-    <t>TTLL9</t>
-  </si>
-  <si>
-    <t>CRYAB</t>
-  </si>
-  <si>
-    <t>CDH13</t>
-  </si>
-  <si>
-    <t>SGK2</t>
-  </si>
-  <si>
-    <t>PRG3</t>
-  </si>
-  <si>
-    <t>AIFM3</t>
-  </si>
-  <si>
-    <t>FAM131A</t>
-  </si>
-  <si>
-    <t>ATP9A</t>
-  </si>
-  <si>
-    <t>RTP1</t>
-  </si>
-  <si>
-    <t>SLC32A1</t>
-  </si>
-  <si>
-    <t>TEX26</t>
-  </si>
-  <si>
-    <t>CCDC105</t>
-  </si>
-  <si>
-    <t>ABI2</t>
-  </si>
-  <si>
-    <t>TPH2</t>
-  </si>
-  <si>
-    <t>BTBD16</t>
-  </si>
-  <si>
-    <t>ZNRF4</t>
-  </si>
-  <si>
-    <t>AGBL1</t>
-  </si>
-  <si>
-    <t>CPNE9</t>
-  </si>
-  <si>
-    <t>TTLL8</t>
-  </si>
-  <si>
-    <t>FAM9C</t>
-  </si>
-  <si>
-    <t>WIF1</t>
-  </si>
-  <si>
-    <t>CELF3</t>
-  </si>
-  <si>
-    <t>SLC35F3</t>
-  </si>
-  <si>
-    <t>DCC</t>
-  </si>
-  <si>
-    <t>ADCY1</t>
-  </si>
-  <si>
-    <t>NIPA1</t>
-  </si>
-  <si>
-    <t>CPNE4</t>
-  </si>
-  <si>
-    <t>DACT3</t>
-  </si>
-  <si>
-    <t>MDH1B</t>
   </si>
   <si>
     <t>Human_PC1_loading</t>
@@ -690,7 +690,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -700,38 +700,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,7 +720,7 @@
   <dimension ref="A1:G213"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="true"/>
+    <col min="1" max="1" width="11.42578125" customWidth="true"/>
     <col min="2" max="2" width="19.28515625" customWidth="true"/>
     <col min="3" max="3" width="19.28515625" customWidth="true"/>
     <col min="4" max="4" width="19.28515625" customWidth="true"/>
@@ -754,40 +730,40 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.488353417864859</v>
+        <v>-1.4882842473898599</v>
       </c>
       <c r="C2">
-        <v>-0.34892742860352521</v>
+        <v>-0.34875662402762519</v>
       </c>
       <c r="D2">
-        <v>0.00088163740175143562</v>
+        <v>0.0034931881668868476</v>
       </c>
       <c r="E2">
         <v>0.33983551999278455</v>
@@ -800,17 +776,17 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.394179102442896</v>
+        <v>0.39433351727572907</v>
       </c>
       <c r="C3">
-        <v>-1.1970101810202631</v>
+        <v>-1.1982628916702156</v>
       </c>
       <c r="D3">
-        <v>-0.88137223447320601</v>
+        <v>-0.87889708615294659</v>
       </c>
       <c r="E3">
         <v>-0.51755389108673489</v>
@@ -823,17 +799,17 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.53084939193102176</v>
+        <v>0.53019198274605817</v>
       </c>
       <c r="C4">
-        <v>1.7299327253902552</v>
+        <v>1.7304503978876993</v>
       </c>
       <c r="D4">
-        <v>-0.28964054049976218</v>
+        <v>-0.29630459857042341</v>
       </c>
       <c r="E4">
         <v>0.9513658815294378</v>
@@ -846,17 +822,17 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.24146223014335125</v>
+        <v>-0.24115892980983997</v>
       </c>
       <c r="C5">
-        <v>1.0251934817344568</v>
+        <v>1.0259037789157011</v>
       </c>
       <c r="D5">
-        <v>1.0017651646949679</v>
+        <v>1.0025493934086622</v>
       </c>
       <c r="E5">
         <v>0.74185973660688453</v>
@@ -869,17 +845,17 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.53897894990135198</v>
+        <v>0.53897412140974998</v>
       </c>
       <c r="C6">
-        <v>-1.317357033329871</v>
+        <v>-1.3185735016514681</v>
       </c>
       <c r="D6">
-        <v>-1.214918238977764</v>
+        <v>-1.2126609508128803</v>
       </c>
       <c r="E6">
         <v>0.73938258606416407</v>
@@ -892,17 +868,17 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.92841313837810568</v>
+        <v>0.92814130584421151</v>
       </c>
       <c r="C7">
-        <v>-0.45900303257566227</v>
+        <v>-0.45928911828778612</v>
       </c>
       <c r="D7">
-        <v>-0.85002109476044474</v>
+        <v>-0.85241386920625439</v>
       </c>
       <c r="E7">
         <v>1.0996469346334254</v>
@@ -915,17 +891,17 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.53602245679989613</v>
+        <v>0.53587782118772154</v>
       </c>
       <c r="C8">
-        <v>-0.3500601420005619</v>
+        <v>-0.35142342146371064</v>
       </c>
       <c r="D8">
-        <v>-0.89198620593468381</v>
+        <v>-0.8902000305051988</v>
       </c>
       <c r="E8">
         <v>-0.087733698053214709</v>
@@ -938,17 +914,17 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.21408437381403173</v>
+        <v>0.21478715226081152</v>
       </c>
       <c r="C9">
-        <v>-1.5539523637142545</v>
+        <v>-1.5533438926795951</v>
       </c>
       <c r="D9">
-        <v>0.5272496029722753</v>
+        <v>0.53059153783907764</v>
       </c>
       <c r="E9">
         <v>0.91895089369756044</v>
@@ -961,17 +937,17 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.3427912669796032</v>
+        <v>1.3426117612011739</v>
       </c>
       <c r="C10">
-        <v>-0.85198331250900106</v>
+        <v>-0.85196862985799693</v>
       </c>
       <c r="D10">
-        <v>-0.79806605025713695</v>
+        <v>-0.80028076261746994</v>
       </c>
       <c r="E10">
         <v>1.5686738036409678</v>
@@ -984,17 +960,17 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.1694562280340355</v>
+        <v>1.1693903389878904</v>
       </c>
       <c r="C11">
-        <v>-0.099582808950935464</v>
+        <v>-0.10017430732320136</v>
       </c>
       <c r="D11">
-        <v>-0.40365371476557149</v>
+        <v>-0.40450265119827206</v>
       </c>
       <c r="E11">
         <v>1.3401235902547135</v>
@@ -1007,17 +983,17 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-1.2691875839554134</v>
+        <v>-1.2686059161911309</v>
       </c>
       <c r="C12">
-        <v>-0.18214372078537705</v>
+        <v>-0.18171069671236434</v>
       </c>
       <c r="D12">
-        <v>0.715978557736621</v>
+        <v>0.71977591200496205</v>
       </c>
       <c r="E12">
         <v>-1.4952745124270805</v>
@@ -1030,17 +1006,17 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.508325816675083</v>
+        <v>1.5080121994279072</v>
       </c>
       <c r="C13">
-        <v>0.079978489511743953</v>
+        <v>0.079605881821154814</v>
       </c>
       <c r="D13">
-        <v>-0.58354634862638677</v>
+        <v>-0.58673263122506214</v>
       </c>
       <c r="E13">
         <v>1.355198926008724</v>
@@ -1053,17 +1029,17 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.9641546639636045</v>
+        <v>0.96347132081664677</v>
       </c>
       <c r="C14">
-        <v>0.7483728667053261</v>
+        <v>0.74855432077443729</v>
       </c>
       <c r="D14">
-        <v>-0.83910763848313008</v>
+        <v>-0.84452361104806739</v>
       </c>
       <c r="E14">
         <v>-1.2992721559054978</v>
@@ -1076,17 +1052,17 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.2288416615646491</v>
+        <v>1.228796865764235</v>
       </c>
       <c r="C15">
-        <v>0.1864079482256428</v>
+        <v>0.18616931483411503</v>
       </c>
       <c r="D15">
-        <v>-0.34840555565278158</v>
+        <v>-0.3510747822227151</v>
       </c>
       <c r="E15">
         <v>1.2581693461601724</v>
@@ -1099,17 +1075,17 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.3793070209988128</v>
+        <v>0.37853709416551334</v>
       </c>
       <c r="C16">
-        <v>1.327343851162724</v>
+        <v>1.3263181545068392</v>
       </c>
       <c r="D16">
-        <v>-0.6247334568495273</v>
+        <v>-0.62846331025186519</v>
       </c>
       <c r="E16">
         <v>-0.62948291747376006</v>
@@ -1122,17 +1098,17 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.95213985633566256</v>
+        <v>0.95132289691689997</v>
       </c>
       <c r="C17">
-        <v>-0.0039166284755639772</v>
+        <v>-0.005436337955599441</v>
       </c>
       <c r="D17">
-        <v>-1.6669740509908444</v>
+        <v>-1.6680741411992279</v>
       </c>
       <c r="E17">
         <v>1.1132829320044073</v>
@@ -1145,17 +1121,17 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.77474269511015903</v>
+        <v>0.77531458987670576</v>
       </c>
       <c r="C18">
-        <v>-1.764506203714026</v>
+        <v>-1.7639964781770012</v>
       </c>
       <c r="D18">
-        <v>0.24237961929853916</v>
+        <v>0.2448536414409466</v>
       </c>
       <c r="E18">
         <v>1.3690303645355049</v>
@@ -1168,17 +1144,17 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.35784461182616434</v>
+        <v>0.35725272676323883</v>
       </c>
       <c r="C19">
-        <v>0.15813581547831429</v>
+        <v>0.15569219756982783</v>
       </c>
       <c r="D19">
-        <v>-1.4798356882239572</v>
+        <v>-1.479348753847884</v>
       </c>
       <c r="E19">
         <v>-0.31141405257553845</v>
@@ -1191,17 +1167,17 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-0.83881739143749456</v>
+        <v>-0.83837334282480158</v>
       </c>
       <c r="C20">
-        <v>1.0263611501986167</v>
+        <v>1.0278740848397334</v>
       </c>
       <c r="D20">
-        <v>1.7729671124524706</v>
+        <v>1.773763087720533</v>
       </c>
       <c r="E20">
         <v>-1.6320267237461394</v>
@@ -1214,17 +1190,17 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-0.88976267007099785</v>
+        <v>-0.89020560989479647</v>
       </c>
       <c r="C21">
-        <v>0.21400785183412124</v>
+        <v>0.21336170194882942</v>
       </c>
       <c r="D21">
-        <v>-0.61160474729882652</v>
+        <v>-0.61317251744966161</v>
       </c>
       <c r="E21">
         <v>-0.61300969075243017</v>
@@ -1237,17 +1213,17 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.25508597458278504</v>
+        <v>-0.25444979514830129</v>
       </c>
       <c r="C22">
-        <v>0.66040219434773884</v>
+        <v>0.6625832500544806</v>
       </c>
       <c r="D22">
-        <v>1.6507607761518652</v>
+        <v>1.6507557983001855</v>
       </c>
       <c r="E22">
         <v>1.297201418686907</v>
@@ -1260,17 +1236,17 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.69203534286869794</v>
+        <v>0.69260587442415988</v>
       </c>
       <c r="C23">
-        <v>-1.3765191983171783</v>
+        <v>-1.37529198873965</v>
       </c>
       <c r="D23">
-        <v>0.59813235560753741</v>
+        <v>0.59884395257816658</v>
       </c>
       <c r="E23">
         <v>0.51597238268054879</v>
@@ -1283,17 +1259,17 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.32892330935045055</v>
+        <v>0.32965684392090061</v>
       </c>
       <c r="C24">
-        <v>-0.058802439935375213</v>
+        <v>-0.05617376840381734</v>
       </c>
       <c r="D24">
-        <v>1.6974563792697939</v>
+        <v>1.6975979205434497</v>
       </c>
       <c r="E24">
         <v>-0.54760442652449448</v>
@@ -1306,17 +1282,17 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.4435179047632338</v>
+        <v>1.4433186565204899</v>
       </c>
       <c r="C25">
-        <v>0.16521081496754902</v>
+        <v>0.1655288707750649</v>
       </c>
       <c r="D25">
-        <v>-0.28679864476270384</v>
+        <v>-0.2903920185671412</v>
       </c>
       <c r="E25">
         <v>0.40263976172263138</v>
@@ -1329,17 +1305,17 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-1.5523453933808165</v>
+        <v>-1.5521689877606091</v>
       </c>
       <c r="C26">
-        <v>-0.032876160784737651</v>
+        <v>-0.034378121335692825</v>
       </c>
       <c r="D26">
-        <v>-0.42451853420288982</v>
+        <v>-0.42197434474480572</v>
       </c>
       <c r="E26">
         <v>0.48741636566902741</v>
@@ -1352,17 +1328,17 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.51362745267695586</v>
+        <v>-0.51318475964316579</v>
       </c>
       <c r="C27">
-        <v>0.32288003023637285</v>
+        <v>0.32336254296633909</v>
       </c>
       <c r="D27">
-        <v>0.63689110782760527</v>
+        <v>0.6390499258838922</v>
       </c>
       <c r="E27">
         <v>-1.1208021150312673</v>
@@ -1375,17 +1351,17 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.095285577067687977</v>
+        <v>0.093811963970713799</v>
       </c>
       <c r="C28">
-        <v>-0.028484050835603382</v>
+        <v>-0.030616689791360809</v>
       </c>
       <c r="D28">
-        <v>-2.2686328304245986</v>
+        <v>-2.2699887991580545</v>
       </c>
       <c r="E28">
         <v>-1.1273177425306375</v>
@@ -1398,17 +1374,17 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-0.63188027711118078</v>
+        <v>-0.63160095248020831</v>
       </c>
       <c r="C29">
-        <v>0.57082241462475847</v>
+        <v>0.56910102310429178</v>
       </c>
       <c r="D29">
-        <v>-0.075802374295635938</v>
+        <v>-0.072719850421797641</v>
       </c>
       <c r="E29">
         <v>0.11970138823915139</v>
@@ -1421,17 +1397,17 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-1.8331120295180188</v>
+        <v>-1.8328314066142264</v>
       </c>
       <c r="C30">
-        <v>-0.34973764134555463</v>
+        <v>-0.34950581746382858</v>
       </c>
       <c r="D30">
-        <v>0.69142346224392881</v>
+        <v>0.69485665975384281</v>
       </c>
       <c r="E30">
         <v>-1.9891150674351306</v>
@@ -1444,17 +1420,17 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-1.8529855169881819</v>
+        <v>-1.8530533271678342</v>
       </c>
       <c r="C31">
-        <v>1.0572274302244609</v>
+        <v>1.0565857087160981</v>
       </c>
       <c r="D31">
-        <v>0.11086159857483055</v>
+        <v>0.11235215906716398</v>
       </c>
       <c r="E31">
         <v>-0.036594697740112696</v>
@@ -1467,17 +1443,17 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.014045140046171764</v>
+        <v>0.013600389032762731</v>
       </c>
       <c r="C32">
-        <v>0.35445474024865781</v>
+        <v>0.35489070067183759</v>
       </c>
       <c r="D32">
-        <v>0.22228205591626546</v>
+        <v>0.22004418861042552</v>
       </c>
       <c r="E32">
         <v>1.0388077896209216</v>
@@ -1490,17 +1466,17 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.40918764374058025</v>
+        <v>0.40986110916915686</v>
       </c>
       <c r="C33">
-        <v>0.6827554387762268</v>
+        <v>0.68236475559762888</v>
       </c>
       <c r="D33">
-        <v>0.4128879089071168</v>
+        <v>0.41232916671817371</v>
       </c>
       <c r="E33">
         <v>-0.19002649336986852</v>
@@ -1513,17 +1489,17 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.83571189286465919</v>
+        <v>0.8356681332136896</v>
       </c>
       <c r="C34">
-        <v>-0.63106775799514936</v>
+        <v>-0.63235825109580401</v>
       </c>
       <c r="D34">
-        <v>-1.203806446347099</v>
+        <v>-1.2018992427759416</v>
       </c>
       <c r="E34">
         <v>1.5880491173415194</v>
@@ -1536,17 +1512,17 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-1.2586599450505134</v>
+        <v>-1.2593015099193097</v>
       </c>
       <c r="C35">
-        <v>0.97773860206614582</v>
+        <v>0.97521625985757376</v>
       </c>
       <c r="D35">
-        <v>-0.89448784581405316</v>
+        <v>-0.89238096173795689</v>
       </c>
       <c r="E35">
         <v>-0.13920687458911857</v>
@@ -1559,17 +1535,17 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.89381932809652787</v>
+        <v>0.89358534890180874</v>
       </c>
       <c r="C36">
-        <v>-1.0873045214222272</v>
+        <v>-1.0882216622138117</v>
       </c>
       <c r="D36">
-        <v>-1.4122599543252161</v>
+        <v>-1.4116779965462403</v>
       </c>
       <c r="E36">
         <v>-0.42965976686147345</v>
@@ -1582,17 +1558,17 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.71877460300743989</v>
+        <v>0.71814888881300754</v>
       </c>
       <c r="C37">
-        <v>1.2454478038787096</v>
+        <v>1.2453856180273752</v>
       </c>
       <c r="D37">
-        <v>-0.34459585806943965</v>
+        <v>-0.34943053538442703</v>
       </c>
       <c r="E37">
         <v>-0.52226226373094731</v>
@@ -1605,17 +1581,17 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.9545078532743595</v>
+        <v>0.95404397150307108</v>
       </c>
       <c r="C38">
-        <v>0.1267263800920487</v>
+        <v>0.12591482911464574</v>
       </c>
       <c r="D38">
-        <v>-1.2889669596074658</v>
+        <v>-1.2919636019061058</v>
       </c>
       <c r="E38">
         <v>0.91154640489162519</v>
@@ -1628,17 +1604,17 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-0.24245675725474003</v>
+        <v>-0.24239661114483804</v>
       </c>
       <c r="C39">
-        <v>-1.7765895345584977</v>
+        <v>-1.7774492430952589</v>
       </c>
       <c r="D39">
-        <v>-0.74871842134060707</v>
+        <v>-0.74485249383836427</v>
       </c>
       <c r="E39">
         <v>-1.0858450076245383</v>
@@ -1651,17 +1627,17 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.26430258105703625</v>
+        <v>0.26352515049196257</v>
       </c>
       <c r="C40">
-        <v>-0.65125249765511772</v>
+        <v>-0.65254607917525531</v>
       </c>
       <c r="D40">
-        <v>-1.8592811763338806</v>
+        <v>-1.8603505045496616</v>
       </c>
       <c r="E40">
         <v>-0.23299611895919473</v>
@@ -1674,17 +1650,17 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-2.0511540079793664</v>
+        <v>-2.0516647195200219</v>
       </c>
       <c r="C41">
-        <v>1.1677808374765266</v>
+        <v>1.1675750352291538</v>
       </c>
       <c r="D41">
-        <v>0.18678208324708545</v>
+        <v>0.18570630091847709</v>
       </c>
       <c r="E41">
         <v>-1.3311217484605249</v>
@@ -1697,17 +1673,17 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-0.95623957880860633</v>
+        <v>-0.95612370005718905</v>
       </c>
       <c r="C42">
-        <v>1.2160580044867726</v>
+        <v>1.2156194985555393</v>
       </c>
       <c r="D42">
-        <v>0.25805476045366543</v>
+        <v>0.25675839742740919</v>
       </c>
       <c r="E42">
         <v>0.6422864244931108</v>
@@ -1720,17 +1696,17 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.87017139204591887</v>
+        <v>0.87002394619020984</v>
       </c>
       <c r="C43">
-        <v>-0.029118800960973971</v>
+        <v>-0.027637123273276557</v>
       </c>
       <c r="D43">
-        <v>0.36227855382138119</v>
+        <v>0.359727338154745</v>
       </c>
       <c r="E43">
         <v>0.45792096892110074</v>
@@ -1743,17 +1719,17 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-1.7879817440824688</v>
+        <v>-1.7877625917502715</v>
       </c>
       <c r="C44">
-        <v>-0.25233351725861297</v>
+        <v>-0.25440745715642182</v>
       </c>
       <c r="D44">
-        <v>-0.61540940615367079</v>
+        <v>-0.61016154410894752</v>
       </c>
       <c r="E44">
         <v>-0.52560621354074</v>
@@ -1766,17 +1742,17 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.47048372254007953</v>
+        <v>0.47112645478465282</v>
       </c>
       <c r="C45">
-        <v>-0.46538524153364436</v>
+        <v>-0.46331707509585657</v>
       </c>
       <c r="D45">
-        <v>1.1758928346082544</v>
+        <v>1.1767459577886046</v>
       </c>
       <c r="E45">
         <v>-1.3304578530603783</v>
@@ -1789,17 +1765,17 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.10614618270188719</v>
+        <v>0.1064991563638276</v>
       </c>
       <c r="C46">
-        <v>-1.6468158847890997</v>
+        <v>-1.647745297343149</v>
       </c>
       <c r="D46">
-        <v>-0.52814928235467806</v>
+        <v>-0.52373381794321405</v>
       </c>
       <c r="E46">
         <v>1.1211874475616943</v>
@@ -1812,17 +1788,17 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1.1027025086114426</v>
+        <v>1.1030525004022107</v>
       </c>
       <c r="C47">
-        <v>-0.81240482418492066</v>
+        <v>-0.81186722554511559</v>
       </c>
       <c r="D47">
-        <v>0.1045876137551303</v>
+        <v>0.1046817505736219</v>
       </c>
       <c r="E47">
         <v>1.044208352386665</v>
@@ -1835,17 +1811,17 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.2703262290746361</v>
+        <v>-0.26963259842447923</v>
       </c>
       <c r="C48">
-        <v>-1.5232021029973137</v>
+        <v>-1.5224398442291078</v>
       </c>
       <c r="D48">
-        <v>0.46993825275471673</v>
+        <v>0.47445910526629298</v>
       </c>
       <c r="E48">
         <v>-0.784117235303328</v>
@@ -1858,17 +1834,17 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-2.1615990831144152</v>
+        <v>-2.1617253384062636</v>
       </c>
       <c r="C49">
-        <v>0.79584510787814533</v>
+        <v>0.79618555702486693</v>
       </c>
       <c r="D49">
-        <v>0.31983699879670591</v>
+        <v>0.32007273598819613</v>
       </c>
       <c r="E49">
         <v>-1.4893662109779184</v>
@@ -1881,17 +1857,17 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-2.182809685046414</v>
+        <v>-2.1829904455147617</v>
       </c>
       <c r="C50">
-        <v>0.1623325762279359</v>
+        <v>0.16068858056595275</v>
       </c>
       <c r="D50">
-        <v>-0.34248741423047252</v>
+        <v>-0.33890827866719414</v>
       </c>
       <c r="E50">
         <v>-1.3245162294291133</v>
@@ -1904,17 +1880,17 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-1.6601586522494012</v>
+        <v>-1.6597445639295765</v>
       </c>
       <c r="C51">
-        <v>0.85509858514089387</v>
+        <v>0.85430272731065082</v>
       </c>
       <c r="D51">
-        <v>0.68049737623546247</v>
+        <v>0.68298211255472052</v>
       </c>
       <c r="E51">
         <v>-0.79596366267803476</v>
@@ -1927,17 +1903,17 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1.4345574776000947</v>
+        <v>1.4343297963194479</v>
       </c>
       <c r="C52">
-        <v>0.0038460720945005678</v>
+        <v>0.0034560137255359382</v>
       </c>
       <c r="D52">
-        <v>-0.68392630439141777</v>
+        <v>-0.68647223762268306</v>
       </c>
       <c r="E52">
         <v>1.3814646814601081</v>
@@ -1950,17 +1926,17 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-1.6850307722673159</v>
+        <v>-1.6850575291152625</v>
       </c>
       <c r="C53">
-        <v>0.90114797625717602</v>
+        <v>0.90265436421862777</v>
       </c>
       <c r="D53">
-        <v>0.90824372961749678</v>
+        <v>0.90736555172632671</v>
       </c>
       <c r="E53">
         <v>-1.1138578359434754</v>
@@ -1973,17 +1949,17 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1.3436405074926985</v>
+        <v>1.3433382396470699</v>
       </c>
       <c r="C54">
-        <v>-0.24485553088086903</v>
+        <v>-0.24582034898446076</v>
       </c>
       <c r="D54">
-        <v>-1.0553283907926296</v>
+        <v>-1.0564636830743119</v>
       </c>
       <c r="E54">
         <v>1.4149977109622887</v>
@@ -1996,17 +1972,17 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-0.53480299655157959</v>
+        <v>-0.53501911605608943</v>
       </c>
       <c r="C55">
-        <v>-1.3093769231340859</v>
+        <v>-1.3087329809265829</v>
       </c>
       <c r="D55">
-        <v>-0.14531083322444971</v>
+        <v>-0.14284101955644032</v>
       </c>
       <c r="E55">
         <v>-1.2293493667025397</v>
@@ -2019,17 +1995,17 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-0.14265769943189335</v>
+        <v>-0.14187911019433733</v>
       </c>
       <c r="C56">
-        <v>0.67789906135466937</v>
+        <v>0.68119786761419188</v>
       </c>
       <c r="D56">
-        <v>2.4964271511388869</v>
+        <v>2.494516957475728</v>
       </c>
       <c r="E56">
         <v>0.60900646071550835</v>
@@ -2042,17 +2018,17 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.97448608074233511</v>
+        <v>0.97427799055691444</v>
       </c>
       <c r="C57">
-        <v>0.68703120854419075</v>
+        <v>0.68727986862762591</v>
       </c>
       <c r="D57">
-        <v>-0.074675000166054689</v>
+        <v>-0.078087324674985303</v>
       </c>
       <c r="E57">
         <v>-0.3466787672601388</v>
@@ -2065,17 +2041,17 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-0.70601366669494403</v>
+        <v>-0.70613620335046212</v>
       </c>
       <c r="C58">
-        <v>1.5960162984598512</v>
+        <v>1.5953857130636222</v>
       </c>
       <c r="D58">
-        <v>0.074662823989619667</v>
+        <v>0.074599045915456103</v>
       </c>
       <c r="E58">
         <v>-1.0738124577860959</v>
@@ -2088,17 +2064,17 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-1.4827369142083464</v>
+        <v>-1.4835011151082278</v>
       </c>
       <c r="C59">
-        <v>1.5467221399261526</v>
+        <v>1.5460407353495893</v>
       </c>
       <c r="D59">
-        <v>-0.64852942814985104</v>
+        <v>-0.65060008971536332</v>
       </c>
       <c r="E59">
         <v>-1.4208943519410238</v>
@@ -2111,17 +2087,17 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-1.4991523659457413</v>
+        <v>-1.4989273076536569</v>
       </c>
       <c r="C60">
-        <v>1.7685751389328208</v>
+        <v>1.7700264098467335</v>
       </c>
       <c r="D60">
-        <v>1.7056804645183561</v>
+        <v>1.704563965975461</v>
       </c>
       <c r="E60">
         <v>-0.7514202295328718</v>
@@ -2134,17 +2110,17 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1.1190846753213357</v>
+        <v>1.1193023571585929</v>
       </c>
       <c r="C61">
-        <v>-0.71645337363077899</v>
+        <v>-0.71633369990625095</v>
       </c>
       <c r="D61">
-        <v>0.047171233471902926</v>
+        <v>0.047579916945144164</v>
       </c>
       <c r="E61">
         <v>1.1935424393530918</v>
@@ -2157,17 +2133,17 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-1.2524532517354008</v>
+        <v>-1.2513411372905257</v>
       </c>
       <c r="C62">
-        <v>-0.086774767324948779</v>
+        <v>-0.086955821500115049</v>
       </c>
       <c r="D62">
-        <v>1.1639694801858658</v>
+        <v>1.1691381694903924</v>
       </c>
       <c r="E62">
         <v>-1.4634062620555948</v>
@@ -2180,17 +2156,17 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.16233994088142478</v>
+        <v>0.16284179112223016</v>
       </c>
       <c r="C63">
-        <v>-0.86799834971596834</v>
+        <v>-0.86611794274242626</v>
       </c>
       <c r="D63">
-        <v>1.1975474465313865</v>
+        <v>1.200106021518895</v>
       </c>
       <c r="E63">
         <v>-0.28032251788724377</v>
@@ -2203,17 +2179,17 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.49072412575728863</v>
+        <v>0.49045511825317978</v>
       </c>
       <c r="C64">
-        <v>0.78026055631642532</v>
+        <v>0.78018260518992055</v>
       </c>
       <c r="D64">
-        <v>-0.15666938837048627</v>
+        <v>-0.15961452806015097</v>
       </c>
       <c r="E64">
         <v>1.4205529831132502</v>
@@ -2226,17 +2202,17 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-1.5047709540409322</v>
+        <v>-1.5042377787214583</v>
       </c>
       <c r="C65">
-        <v>0.99626986941982476</v>
+        <v>0.99663025215256273</v>
       </c>
       <c r="D65">
-        <v>1.3951383589931587</v>
+        <v>1.3975935835403093</v>
       </c>
       <c r="E65">
         <v>-1.1727198956279488</v>
@@ -2249,17 +2225,17 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.56269362834860437</v>
+        <v>0.56244861626458187</v>
       </c>
       <c r="C66">
-        <v>-1.1170069188786773</v>
+        <v>-1.1182323618506915</v>
       </c>
       <c r="D66">
-        <v>-1.0097882743179794</v>
+        <v>-1.0085075872827691</v>
       </c>
       <c r="E66">
         <v>1.0300307755797036</v>
@@ -2272,17 +2248,17 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1.2853516874581719</v>
+        <v>1.2855474534438729</v>
       </c>
       <c r="C67">
-        <v>-0.10489674460747977</v>
+        <v>-0.1030062143266042</v>
       </c>
       <c r="D67">
-        <v>0.93897921195401346</v>
+        <v>0.9360809901342354</v>
       </c>
       <c r="E67">
         <v>0.97703222598325901</v>
@@ -2295,17 +2271,17 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.65574149174517793</v>
+        <v>0.65651356944092554</v>
       </c>
       <c r="C68">
-        <v>-1.3787703482758735</v>
+        <v>-1.3772798524260512</v>
       </c>
       <c r="D68">
-        <v>1.002576193488788</v>
+        <v>1.0048701352202767</v>
       </c>
       <c r="E68">
         <v>-0.93077873387373078</v>
@@ -2318,17 +2294,17 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-1.3411691086917064</v>
+        <v>-1.3410858978342532</v>
       </c>
       <c r="C69">
-        <v>1.1050159087656923</v>
+        <v>1.1047901594868883</v>
       </c>
       <c r="D69">
-        <v>0.76270457468500108</v>
+        <v>0.76282347026548858</v>
       </c>
       <c r="E69">
         <v>-1.3496222581424693</v>
@@ -2341,17 +2317,17 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-1.7034929000358721</v>
+        <v>-1.7045832142485133</v>
       </c>
       <c r="C70">
-        <v>0.4274467428379668</v>
+        <v>0.42597238084102701</v>
       </c>
       <c r="D70">
-        <v>-1.2609600024074719</v>
+        <v>-1.2602849339513598</v>
       </c>
       <c r="E70">
         <v>-1.5966858337754277</v>
@@ -2364,17 +2340,17 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-0.80067118248371416</v>
+        <v>-0.80057036027014616</v>
       </c>
       <c r="C71">
-        <v>1.102418256885374</v>
+        <v>1.1038621516623837</v>
       </c>
       <c r="D71">
-        <v>1.0939545516249023</v>
+        <v>1.0909972842988591</v>
       </c>
       <c r="E71">
         <v>1.2397222286574214</v>
@@ -2387,17 +2363,17 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.14436153059773993</v>
+        <v>0.14432185050766444</v>
       </c>
       <c r="C72">
-        <v>-0.66418530783035934</v>
+        <v>-0.6653593477328843</v>
       </c>
       <c r="D72">
-        <v>-0.34064787039285654</v>
+        <v>-0.33825061199621242</v>
       </c>
       <c r="E72">
         <v>0.03638609789552779</v>
@@ -2410,17 +2386,17 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-0.011314440438722574</v>
+        <v>-0.011428625751155528</v>
       </c>
       <c r="C73">
-        <v>-0.50153833475980525</v>
+        <v>-0.49976327796114223</v>
       </c>
       <c r="D73">
-        <v>0.49119372522475324</v>
+        <v>0.48955244299574635</v>
       </c>
       <c r="E73">
         <v>-0.77788557249619239</v>
@@ -2433,17 +2409,17 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-1.9703421844983868</v>
+        <v>-1.9708101501853508</v>
       </c>
       <c r="C74">
-        <v>1.3863472853831984</v>
+        <v>1.3856822769534636</v>
       </c>
       <c r="D74">
-        <v>0.079845259716469039</v>
+        <v>0.079868735662899371</v>
       </c>
       <c r="E74">
         <v>-1.5856079558298999</v>
@@ -2456,17 +2432,17 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-1.1720392356245748</v>
+        <v>-1.1721975621293779</v>
       </c>
       <c r="C75">
-        <v>1.2010639789983779</v>
+        <v>1.2026083247088968</v>
       </c>
       <c r="D75">
-        <v>0.85845843504255459</v>
+        <v>0.85636799739195801</v>
       </c>
       <c r="E75">
         <v>0.8713505556879485</v>
@@ -2479,17 +2455,17 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1.4482085135005809</v>
+        <v>1.4481449874220831</v>
       </c>
       <c r="C76">
-        <v>-0.22467876236613588</v>
+        <v>-0.2240608761137026</v>
       </c>
       <c r="D76">
-        <v>-0.14111511071368113</v>
+        <v>-0.14407023628712379</v>
       </c>
       <c r="E76">
         <v>1.0430549554808404</v>
@@ -2502,17 +2478,17 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-2.174262995519102</v>
+        <v>-2.1747494801110507</v>
       </c>
       <c r="C77">
-        <v>0.84704824869363848</v>
+        <v>0.8458171369674431</v>
       </c>
       <c r="D77">
-        <v>-0.025154437923768699</v>
+        <v>-0.02330702631669224</v>
       </c>
       <c r="E77">
         <v>-1.1317350893204281</v>
@@ -2525,17 +2501,17 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-0.34892989439162753</v>
+        <v>-0.34908890643605561</v>
       </c>
       <c r="C78">
-        <v>1.1780281007652122</v>
+        <v>1.1756835571698088</v>
       </c>
       <c r="D78">
-        <v>-0.89198495071137773</v>
+        <v>-0.89019493288362905</v>
       </c>
       <c r="E78">
         <v>-1.5310929892066454</v>
@@ -2548,17 +2524,17 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.14381408893939929</v>
+        <v>0.1434100622371349</v>
       </c>
       <c r="C79">
-        <v>1.1456979369071298</v>
+        <v>1.1467338884083513</v>
       </c>
       <c r="D79">
-        <v>0.81881237083992864</v>
+        <v>0.81404900223250487</v>
       </c>
       <c r="E79">
         <v>-0.21581021532195777</v>
@@ -2571,17 +2547,17 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-0.45028656347669521</v>
+        <v>-0.45190521195731681</v>
       </c>
       <c r="C80">
-        <v>0.43319145325770908</v>
+        <v>0.43041232955051517</v>
       </c>
       <c r="D80">
-        <v>-2.5900848956846509</v>
+        <v>-2.5924896434493703</v>
       </c>
       <c r="E80">
         <v>0.41961759099611257</v>
@@ -2594,17 +2570,17 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-1.8063110749622444</v>
+        <v>-1.8069097875674149</v>
       </c>
       <c r="C81">
-        <v>1.0443045170784522</v>
+        <v>1.042890677460218</v>
       </c>
       <c r="D81">
-        <v>-0.50317752490711765</v>
+        <v>-0.50232456197112241</v>
       </c>
       <c r="E81">
         <v>-0.35435109227915179</v>
@@ -2617,17 +2593,17 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.16263513250510689</v>
+        <v>0.1639739737830096</v>
       </c>
       <c r="C82">
-        <v>-1.2866986928988289</v>
+        <v>-1.2840616841933008</v>
       </c>
       <c r="D82">
-        <v>1.933043357223283</v>
+        <v>1.9356160331098993</v>
       </c>
       <c r="E82">
         <v>-0.44741657601303908</v>
@@ -2640,17 +2616,17 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.14898404889394018</v>
+        <v>0.1491113234816295</v>
       </c>
       <c r="C83">
-        <v>1.3665427669973322</v>
+        <v>1.3665412172183422</v>
       </c>
       <c r="D83">
-        <v>0.56575184619753938</v>
+        <v>0.56511075257541699</v>
       </c>
       <c r="E83">
         <v>-0.32464767937032557</v>
@@ -2663,17 +2639,17 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1.5287283940515268</v>
+        <v>1.5288763168943578</v>
       </c>
       <c r="C84">
-        <v>-0.74121155563893915</v>
+        <v>-0.74113403491495411</v>
       </c>
       <c r="D84">
-        <v>-0.19974405091075478</v>
+        <v>-0.20118473725163252</v>
       </c>
       <c r="E84">
         <v>1.4287677940696732</v>
@@ -2686,17 +2662,17 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1.2481620670536455</v>
+        <v>1.2479225340787115</v>
       </c>
       <c r="C85">
-        <v>0.61851039213296133</v>
+        <v>0.61952112861614672</v>
       </c>
       <c r="D85">
-        <v>0.16234766531766651</v>
+        <v>0.15813595076954035</v>
       </c>
       <c r="E85">
         <v>0.98052740148601281</v>
@@ -2709,17 +2685,17 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.35063338024690505</v>
+        <v>0.35106311109746646</v>
       </c>
       <c r="C86">
-        <v>-1.3464421698015474</v>
+        <v>-1.346961607744817</v>
       </c>
       <c r="D86">
-        <v>-0.12260688262737909</v>
+        <v>-0.11978165694811278</v>
       </c>
       <c r="E86">
         <v>-0.03533331619430477</v>
@@ -2732,17 +2708,17 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1.2102585711773028</v>
+        <v>1.2102332945350596</v>
       </c>
       <c r="C87">
-        <v>0.59564689700601536</v>
+        <v>0.59700812262617486</v>
       </c>
       <c r="D87">
-        <v>0.45773251424511674</v>
+        <v>0.4526943841906847</v>
       </c>
       <c r="E87">
         <v>1.5600768697112655</v>
@@ -2755,17 +2731,17 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.95733358535428315</v>
+        <v>0.95722992962072051</v>
       </c>
       <c r="C88">
-        <v>-1.2919917896397302</v>
+        <v>-1.2912039544088654</v>
       </c>
       <c r="D88">
-        <v>-0.1298221995872709</v>
+        <v>-0.12895401305401924</v>
       </c>
       <c r="E88">
         <v>0.93610510221073173</v>
@@ -2778,17 +2754,17 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.84321925725275426</v>
+        <v>0.84364297757346596</v>
       </c>
       <c r="C89">
-        <v>-1.3932522702395826</v>
+        <v>-1.393145815137276</v>
       </c>
       <c r="D89">
-        <v>-0.032277036799998202</v>
+        <v>-0.029383587722350592</v>
       </c>
       <c r="E89">
         <v>1.3295371826608968</v>
@@ -2801,17 +2777,17 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.66642460040395379</v>
+        <v>0.66715492131652754</v>
       </c>
       <c r="C90">
-        <v>-0.46930447791401753</v>
+        <v>-0.46815728579843507</v>
       </c>
       <c r="D90">
-        <v>1.3530548758785705</v>
+        <v>1.3536940547096443</v>
       </c>
       <c r="E90">
         <v>0.94474853665774672</v>
@@ -2824,17 +2800,17 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.92049489295951592</v>
+        <v>0.92104900104036058</v>
       </c>
       <c r="C91">
-        <v>-1.7460166682965861</v>
+        <v>-1.7451748512294827</v>
       </c>
       <c r="D91">
-        <v>0.34288867898671493</v>
+        <v>0.34507944785330036</v>
       </c>
       <c r="E91">
         <v>1.4156196506468248</v>
@@ -2847,17 +2823,17 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.7980447345654621</v>
+        <v>0.79836101543559523</v>
       </c>
       <c r="C92">
-        <v>-0.67052231732822665</v>
+        <v>-0.67142570489462494</v>
       </c>
       <c r="D92">
-        <v>-0.57437858375583617</v>
+        <v>-0.57238921140953436</v>
       </c>
       <c r="E92">
         <v>0.80897596486545431</v>
@@ -2870,17 +2846,17 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.71211627966078306</v>
+        <v>0.71224217506914256</v>
       </c>
       <c r="C93">
-        <v>-1.4356762395058063</v>
+        <v>-1.4369546218895712</v>
       </c>
       <c r="D93">
-        <v>-1.0925041140631779</v>
+        <v>-1.0893963698213047</v>
       </c>
       <c r="E93">
         <v>1.3085152330175733</v>
@@ -2893,17 +2869,17 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-0.09355119249467643</v>
+        <v>-0.094333775103621773</v>
       </c>
       <c r="C94">
-        <v>1.0943012392638314</v>
+        <v>1.0927051196460491</v>
       </c>
       <c r="D94">
-        <v>-1.4254789594034702</v>
+        <v>-1.4269820412766223</v>
       </c>
       <c r="E94">
         <v>-1.7158464676050496</v>
@@ -2916,17 +2892,17 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1.1638178142574842</v>
+        <v>1.163757997469093</v>
       </c>
       <c r="C95">
-        <v>-1.3353570300321034</v>
+        <v>-1.3353448027262551</v>
       </c>
       <c r="D95">
-        <v>-0.61278344955920183</v>
+        <v>-0.61194627769110232</v>
       </c>
       <c r="E95">
         <v>1.4347157083125248</v>
@@ -2939,17 +2915,17 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-1.3129263381460146</v>
+        <v>-1.3141078225413658</v>
       </c>
       <c r="C96">
-        <v>-0.1500854951307718</v>
+        <v>-0.15311311913196154</v>
       </c>
       <c r="D96">
-        <v>-1.8021752799824617</v>
+        <v>-1.7989319884557033</v>
       </c>
       <c r="E96">
         <v>-0.080397463184796958</v>
@@ -2962,17 +2938,17 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-1.5889532812323457</v>
+        <v>-1.5888624487792202</v>
       </c>
       <c r="C97">
-        <v>1.0891064117799776</v>
+        <v>1.0882500854942936</v>
       </c>
       <c r="D97">
-        <v>0.22917689746008787</v>
+        <v>0.22961689061296034</v>
       </c>
       <c r="E97">
         <v>-1.1698251056223796</v>
@@ -2985,17 +2961,17 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.33994423535298784</v>
+        <v>0.34040176386472942</v>
       </c>
       <c r="C98">
-        <v>-0.63980987552018898</v>
+        <v>-0.63778842126950241</v>
       </c>
       <c r="D98">
-        <v>0.95269252275332272</v>
+        <v>0.95297019243831083</v>
       </c>
       <c r="E98">
         <v>-1.0051669274857655</v>
@@ -3008,17 +2984,17 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1.0086388418258589</v>
+        <v>1.0086769222043053</v>
       </c>
       <c r="C99">
-        <v>0.60458821689610132</v>
+        <v>0.60533616556602698</v>
       </c>
       <c r="D99">
-        <v>0.41748719493393777</v>
+        <v>0.41434983340792558</v>
       </c>
       <c r="E99">
         <v>1.07799021243728</v>
@@ -3031,17 +3007,17 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.55827076753639837</v>
+        <v>0.55726202250035184</v>
       </c>
       <c r="C100">
-        <v>0.23378545232705542</v>
+        <v>0.23379789409681323</v>
       </c>
       <c r="D100">
-        <v>-1.1966684844272493</v>
+        <v>-1.1995146476905845</v>
       </c>
       <c r="E100">
         <v>-0.21430074892218995</v>
@@ -3054,17 +3030,17 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1.2771084590334767</v>
+        <v>1.2774265173113772</v>
       </c>
       <c r="C101">
-        <v>-1.1086730506853082</v>
+        <v>-1.1084494221203669</v>
       </c>
       <c r="D101">
-        <v>0.038001500628686812</v>
+        <v>0.039094360426010895</v>
       </c>
       <c r="E101">
         <v>1.0157438111343318</v>
@@ -3077,17 +3053,17 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="13" t="s">
+      <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-0.42762171946548883</v>
+        <v>-0.42709716822887145</v>
       </c>
       <c r="C102">
-        <v>-0.76687652230987391</v>
+        <v>-0.76907403993048096</v>
       </c>
       <c r="D102">
-        <v>-0.51043882709687605</v>
+        <v>-0.50413763154965752</v>
       </c>
       <c r="E102">
         <v>0.86189829174979082</v>
@@ -3100,17 +3076,17 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-0.53818592737157023</v>
+        <v>-0.53858506196112743</v>
       </c>
       <c r="C103">
-        <v>0.83693245133258165</v>
+        <v>0.83744402406046958</v>
       </c>
       <c r="D103">
-        <v>0.55090360790463366</v>
+        <v>0.54888093904914692</v>
       </c>
       <c r="E103">
         <v>-0.78671638676726852</v>
@@ -3123,17 +3099,17 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-0.32061883571328037</v>
+        <v>-0.31979513996694636</v>
       </c>
       <c r="C104">
-        <v>-0.11987042888155001</v>
+        <v>-0.11747292803778717</v>
       </c>
       <c r="D104">
-        <v>2.3302429488040666</v>
+        <v>2.3309670467984382</v>
       </c>
       <c r="E104">
         <v>0.20001793247637425</v>
@@ -3146,17 +3122,17 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="13" t="s">
+      <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1.0097499488011896</v>
+        <v>1.0089674944704115</v>
       </c>
       <c r="C105">
-        <v>1.3242919024406072</v>
+        <v>1.3242988617500207</v>
       </c>
       <c r="D105">
-        <v>-0.67983959671539762</v>
+        <v>-0.68653866981547707</v>
       </c>
       <c r="E105">
         <v>-1.3554595193865808</v>
@@ -3169,17 +3145,17 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-1.736025690938692</v>
+        <v>-1.7360467883629565</v>
       </c>
       <c r="C106">
-        <v>1.6499062494906112</v>
+        <v>1.6507440314042412</v>
       </c>
       <c r="D106">
-        <v>1.1662472050252555</v>
+        <v>1.1649004738427577</v>
       </c>
       <c r="E106">
         <v>-0.97442267795384119</v>
@@ -3192,17 +3168,17 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="13" t="s">
+      <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1.4759052754232778</v>
+        <v>1.4752637513223792</v>
       </c>
       <c r="C107">
-        <v>0.15960316680594752</v>
+        <v>0.16021513280179039</v>
       </c>
       <c r="D107">
-        <v>-0.67753116472420372</v>
+        <v>-0.68257595762579892</v>
       </c>
       <c r="E107">
         <v>1.2291025016423498</v>
@@ -3215,17 +3191,17 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="13" t="s">
+      <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.97854611379817569</v>
+        <v>0.97775242094645687</v>
       </c>
       <c r="C108">
-        <v>1.0210082179738731</v>
+        <v>1.0207204896730073</v>
       </c>
       <c r="D108">
-        <v>-0.99448953956376274</v>
+        <v>-0.99924757184512814</v>
       </c>
       <c r="E108">
         <v>1.4358924212717996</v>
@@ -3238,17 +3214,17 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="13" t="s">
+      <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1.157046753499855</v>
+        <v>1.1571567505951337</v>
       </c>
       <c r="C109">
-        <v>0.51064877452845947</v>
+        <v>0.51167889551872558</v>
       </c>
       <c r="D109">
-        <v>0.59775974133534504</v>
+        <v>0.59473043681345206</v>
       </c>
       <c r="E109">
         <v>0.42378093836249853</v>
@@ -3261,17 +3237,17 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.32628405010622502</v>
+        <v>0.32626851744324831</v>
       </c>
       <c r="C110">
-        <v>1.0168304730427407</v>
+        <v>1.0157430190316117</v>
       </c>
       <c r="D110">
-        <v>-0.16233901396001887</v>
+        <v>-0.1620921675847922</v>
       </c>
       <c r="E110">
         <v>-0.87222146573381221</v>
@@ -3284,17 +3260,17 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="13" t="s">
+      <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1.4185911066178696</v>
+        <v>1.4188328770535781</v>
       </c>
       <c r="C111">
-        <v>-0.42078979784345011</v>
+        <v>-0.42001059353974934</v>
       </c>
       <c r="D111">
-        <v>0.44294563396422432</v>
+        <v>0.44167974953537292</v>
       </c>
       <c r="E111">
         <v>1.2887579283350208</v>
@@ -3307,17 +3283,17 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="13" t="s">
+      <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.2048186820247436</v>
+        <v>0.20563447359200077</v>
       </c>
       <c r="C112">
-        <v>-0.43749619466990536</v>
+        <v>-0.43720726782979774</v>
       </c>
       <c r="D112">
-        <v>0.74894331936111536</v>
+        <v>0.75306805183449532</v>
       </c>
       <c r="E112">
         <v>-1.1432460368661337</v>
@@ -3330,17 +3306,17 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="13" t="s">
+      <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-0.62276265241893503</v>
+        <v>-0.62179418408595266</v>
       </c>
       <c r="C113">
-        <v>-0.88673628099337809</v>
+        <v>-0.88801535754794625</v>
       </c>
       <c r="D113">
-        <v>0.3030408171365469</v>
+        <v>0.30744296955505412</v>
       </c>
       <c r="E113">
         <v>-0.5478557062385192</v>
@@ -3353,17 +3329,17 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="13" t="s">
+      <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1.1259553987444899</v>
+        <v>1.1264456560300509</v>
       </c>
       <c r="C114">
-        <v>-0.60625644581878502</v>
+        <v>-0.60375390776294158</v>
       </c>
       <c r="D114">
-        <v>1.2403097474883731</v>
+        <v>1.2389625044803276</v>
       </c>
       <c r="E114">
         <v>0.611992176476295</v>
@@ -3376,17 +3352,17 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="13" t="s">
+      <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-0.61226275298408139</v>
+        <v>-0.61279749813842521</v>
       </c>
       <c r="C115">
-        <v>-1.2400655176878326</v>
+        <v>-1.2415812817295184</v>
       </c>
       <c r="D115">
-        <v>-1.359545437686196</v>
+        <v>-1.3578421673376364</v>
       </c>
       <c r="E115">
         <v>-1.2408537538050832</v>
@@ -3399,17 +3375,17 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="13" t="s">
+      <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-0.45911186952625632</v>
+        <v>-0.45883486696271092</v>
       </c>
       <c r="C116">
-        <v>-2.1105794287726183</v>
+        <v>-2.1096910283302734</v>
       </c>
       <c r="D116">
-        <v>-0.10252967496069453</v>
+        <v>-0.099975667228034484</v>
       </c>
       <c r="E116">
         <v>-1.6237564008704382</v>
@@ -3422,17 +3398,17 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="13" t="s">
+      <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.25786382508184846</v>
+        <v>0.25718520304266634</v>
       </c>
       <c r="C117">
-        <v>1.7291497065752242</v>
+        <v>1.7288600406566894</v>
       </c>
       <c r="D117">
-        <v>-0.37050462848773075</v>
+        <v>-0.37578904518364087</v>
       </c>
       <c r="E117">
         <v>0.95691874612000483</v>
@@ -3445,17 +3421,17 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="13" t="s">
+      <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.7373656469446016</v>
+        <v>0.73721915124393267</v>
       </c>
       <c r="C118">
-        <v>0.16089113003917624</v>
+        <v>0.15957719191540493</v>
       </c>
       <c r="D118">
-        <v>-0.8456010400555416</v>
+        <v>-0.84508333994267137</v>
       </c>
       <c r="E118">
         <v>1.08484366027696</v>
@@ -3468,17 +3444,17 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="13" t="s">
+      <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-0.20655231223830656</v>
+        <v>-0.20579148748870402</v>
       </c>
       <c r="C119">
-        <v>1.3027505442471794</v>
+        <v>1.3035037395586817</v>
       </c>
       <c r="D119">
-        <v>1.5121012360174964</v>
+        <v>1.511041574164085</v>
       </c>
       <c r="E119">
         <v>0.11959789841586617</v>
@@ -3491,17 +3467,17 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.5813386299494292</v>
+        <v>0.58051692472721628</v>
       </c>
       <c r="C120">
-        <v>0.12542991178286397</v>
+        <v>0.12332847427547482</v>
       </c>
       <c r="D120">
-        <v>-2.2052820129175412</v>
+        <v>-2.2070469907732018</v>
       </c>
       <c r="E120">
         <v>1.154652167578341</v>
@@ -3514,17 +3490,17 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.73927006399673201</v>
+        <v>0.73909608487371936</v>
       </c>
       <c r="C121">
-        <v>-2.1809583988358141</v>
+        <v>-2.1815138259464586</v>
       </c>
       <c r="D121">
-        <v>-1.2360131789624338</v>
+        <v>-1.2347791040501004</v>
       </c>
       <c r="E121">
         <v>1.2930567737680354</v>
@@ -3537,17 +3513,17 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="13" t="s">
+      <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.77211209062876418</v>
+        <v>0.77102409353088719</v>
       </c>
       <c r="C122">
-        <v>0.61436116301849519</v>
+        <v>0.61513254093039482</v>
       </c>
       <c r="D122">
-        <v>-0.63699779641256138</v>
+        <v>-0.64213834619340193</v>
       </c>
       <c r="E122">
         <v>0.2834403627981133</v>
@@ -3560,17 +3536,17 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="13" t="s">
+      <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.60412965494505855</v>
+        <v>0.60412373010253728</v>
       </c>
       <c r="C123">
-        <v>-1.1201028558953652</v>
+        <v>-1.1186378320969894</v>
       </c>
       <c r="D123">
-        <v>0.35914616371130553</v>
+        <v>0.35988944291503494</v>
       </c>
       <c r="E123">
         <v>0.27285032743388893</v>
@@ -3583,17 +3559,17 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="13" t="s">
+      <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B124">
-        <v>-0.020753624687411116</v>
+        <v>-0.021054778615004103</v>
       </c>
       <c r="C124">
-        <v>1.4895089289083554</v>
+        <v>1.4916968815109986</v>
       </c>
       <c r="D124">
-        <v>0.90488916359262916</v>
+        <v>0.89858689737950193</v>
       </c>
       <c r="E124">
         <v>-1.2789156199606064</v>
@@ -3606,17 +3582,17 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="13" t="s">
+      <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B125">
-        <v>-1.0318300963720337</v>
+        <v>-1.0308075902232849</v>
       </c>
       <c r="C125">
-        <v>-1.4009525894705877</v>
+        <v>-1.4007920409978634</v>
       </c>
       <c r="D125">
-        <v>0.74457623944540607</v>
+        <v>0.75052209885007448</v>
       </c>
       <c r="E125">
         <v>-1.5620749149688584</v>
@@ -3629,17 +3605,17 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="13" t="s">
+      <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B126">
-        <v>1.3298697353885927</v>
+        <v>1.3297331228938729</v>
       </c>
       <c r="C126">
-        <v>-0.14210469071593124</v>
+        <v>-0.14223822162660069</v>
       </c>
       <c r="D126">
-        <v>-0.51561242655142048</v>
+        <v>-0.51783315021434484</v>
       </c>
       <c r="E126">
         <v>1.300803729850176</v>
@@ -3652,17 +3628,17 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="13" t="s">
+      <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.12320694561769133</v>
+        <v>0.12283422943456772</v>
       </c>
       <c r="C127">
-        <v>1.1239495005302935</v>
+        <v>1.1240882118247151</v>
       </c>
       <c r="D127">
-        <v>-0.21557343726751776</v>
+        <v>-0.21753184689262187</v>
       </c>
       <c r="E127">
         <v>-0.56608928055318453</v>
@@ -3675,17 +3651,17 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="13" t="s">
+      <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B128">
-        <v>-1.7231049294493279</v>
+        <v>-1.7231935481253524</v>
       </c>
       <c r="C128">
-        <v>-1.0794558871673803</v>
+        <v>-1.0799071706168968</v>
       </c>
       <c r="D128">
-        <v>-0.091962565786591455</v>
+        <v>-0.087849113065170181</v>
       </c>
       <c r="E128">
         <v>-1.6694848405722977</v>
@@ -3698,17 +3674,17 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B129">
-        <v>-1.3173906367512911</v>
+        <v>-1.3173916445523921</v>
       </c>
       <c r="C129">
-        <v>0.39040168466520941</v>
+        <v>0.3893344141264462</v>
       </c>
       <c r="D129">
-        <v>0.1853202206727087</v>
+        <v>0.18646556708744741</v>
       </c>
       <c r="E129">
         <v>-0.35287020769019767</v>
@@ -3721,17 +3697,17 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="13" t="s">
+      <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.68418562890160695</v>
+        <v>0.68433430125041983</v>
       </c>
       <c r="C130">
-        <v>-1.3374178717415239</v>
+        <v>-1.3395611478691642</v>
       </c>
       <c r="D130">
-        <v>-1.2378808505627852</v>
+        <v>-1.2339133197786929</v>
       </c>
       <c r="E130">
         <v>0.53866081258516185</v>
@@ -3744,17 +3720,17 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="13" t="s">
+      <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.94952557116741187</v>
+        <v>0.94963248228553965</v>
       </c>
       <c r="C131">
-        <v>-0.0035417323395540777</v>
+        <v>-0.0023540380974440677</v>
       </c>
       <c r="D131">
-        <v>0.84319113626240261</v>
+        <v>0.84238576265199694</v>
       </c>
       <c r="E131">
         <v>1.3035074312892208</v>
@@ -3767,17 +3743,17 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="13" t="s">
+      <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B132">
-        <v>-0.021842755597931227</v>
+        <v>-0.022044741202166446</v>
       </c>
       <c r="C132">
-        <v>0.59836770127637517</v>
+        <v>0.59628785057277056</v>
       </c>
       <c r="D132">
-        <v>-0.76481125155205354</v>
+        <v>-0.76301632639270711</v>
       </c>
       <c r="E132">
         <v>1.1132297825234818</v>
@@ -3790,17 +3766,17 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="13" t="s">
+      <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.72740623870547205</v>
+        <v>0.72736324717961931</v>
       </c>
       <c r="C133">
-        <v>-0.96923775457001327</v>
+        <v>-0.96916188222175836</v>
       </c>
       <c r="D133">
-        <v>-0.017980796390045645</v>
+        <v>-0.017083313974874659</v>
       </c>
       <c r="E133">
         <v>0.80498783301139132</v>
@@ -3813,17 +3789,17 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="13" t="s">
+      <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B134">
-        <v>-0.95911952300715098</v>
+        <v>-0.95804100244442691</v>
       </c>
       <c r="C134">
-        <v>-0.70259783616988669</v>
+        <v>-0.70050384306783919</v>
       </c>
       <c r="D134">
-        <v>1.8979141270637205</v>
+        <v>1.9017853133549538</v>
       </c>
       <c r="E134">
         <v>-1.2859389871648321</v>
@@ -3836,17 +3812,17 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="13" t="s">
+      <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B135">
-        <v>-0.11774386934107806</v>
+        <v>-0.11741399576084909</v>
       </c>
       <c r="C135">
-        <v>-1.9346358009374791</v>
+        <v>-1.9336411117643715</v>
       </c>
       <c r="D135">
-        <v>0.25232441288620983</v>
+        <v>0.25528822686504821</v>
       </c>
       <c r="E135">
         <v>0.41629489786814788</v>
@@ -3859,17 +3835,17 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="13" t="s">
+      <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.57503677785124441</v>
+        <v>0.57549378979923105</v>
       </c>
       <c r="C136">
-        <v>-1.9776278305394084</v>
+        <v>-1.977542544473097</v>
       </c>
       <c r="D136">
-        <v>-0.19278944798965036</v>
+        <v>-0.18898452796489554</v>
       </c>
       <c r="E136">
         <v>0.14888924132111081</v>
@@ -3882,17 +3858,17 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="13" t="s">
+      <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B137">
-        <v>-0.37037498582561018</v>
+        <v>-0.37101165623440335</v>
       </c>
       <c r="C137">
-        <v>0.79048520494474694</v>
+        <v>0.7910407480139785</v>
       </c>
       <c r="D137">
-        <v>0.34101807176453541</v>
+        <v>0.33802646390797436</v>
       </c>
       <c r="E137">
         <v>1.1481982479798949</v>
@@ -3905,17 +3881,17 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="13" t="s">
+      <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-0.046626397352581693</v>
+        <v>-0.045736308052274501</v>
       </c>
       <c r="C138">
-        <v>-0.8941522910455566</v>
+        <v>-0.89451025004129125</v>
       </c>
       <c r="D138">
-        <v>0.65714889338952021</v>
+        <v>0.66061533753135859</v>
       </c>
       <c r="E138">
         <v>1.1614971939232861</v>
@@ -3928,17 +3904,17 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="13" t="s">
+      <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B139">
-        <v>-0.23483416405245225</v>
+        <v>-0.23465704209056795</v>
       </c>
       <c r="C139">
-        <v>1.395450988747055</v>
+        <v>1.3970535640842323</v>
       </c>
       <c r="D139">
-        <v>0.75848236582907103</v>
+        <v>0.75318603571044551</v>
       </c>
       <c r="E139">
         <v>1.076027156530166</v>
@@ -3951,17 +3927,17 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="13" t="s">
+      <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B140">
-        <v>1.0644331629730586</v>
+        <v>1.064439905302953</v>
       </c>
       <c r="C140">
-        <v>-1.1594503226855124</v>
+        <v>-1.1598643380012914</v>
       </c>
       <c r="D140">
-        <v>-0.52761031462331487</v>
+        <v>-0.52689631628213707</v>
       </c>
       <c r="E140">
         <v>-0.30144486168568441</v>
@@ -3974,17 +3950,17 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="13" t="s">
+      <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B141">
-        <v>-0.56674974213432683</v>
+        <v>-0.56779664884917314</v>
       </c>
       <c r="C141">
-        <v>0.25127320516094542</v>
+        <v>0.24762379513859178</v>
       </c>
       <c r="D141">
-        <v>-2.3911695942358677</v>
+        <v>-2.3901115167469151</v>
       </c>
       <c r="E141">
         <v>0.083510726285044287</v>
@@ -3997,17 +3973,17 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="13" t="s">
+      <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B142">
-        <v>-0.62747510830196707</v>
+        <v>-0.62811916346193331</v>
       </c>
       <c r="C142">
-        <v>-0.64014687195208364</v>
+        <v>-0.63977830959665161</v>
       </c>
       <c r="D142">
-        <v>-0.84164049666183516</v>
+        <v>-0.84345978109088493</v>
       </c>
       <c r="E142">
         <v>-0.74599996651052403</v>
@@ -4020,17 +3996,17 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="13" t="s">
+      <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.36153558854036855</v>
+        <v>0.36212021881780287</v>
       </c>
       <c r="C143">
-        <v>0.61939832974649323</v>
+        <v>0.62168033228802311</v>
       </c>
       <c r="D143">
-        <v>1.7302486450824308</v>
+        <v>1.7281805831337034</v>
       </c>
       <c r="E143">
         <v>0.15197135878052093</v>
@@ -4043,17 +4019,17 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="13" t="s">
+      <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.76600384412811406</v>
+        <v>0.76555928586327371</v>
       </c>
       <c r="C144">
-        <v>0.81296777645224161</v>
+        <v>0.81160074692687689</v>
       </c>
       <c r="D144">
-        <v>-1.16582936762861</v>
+        <v>-1.168464162943591</v>
       </c>
       <c r="E144">
         <v>-0.0020908826621061473</v>
@@ -4066,17 +4042,17 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="13" t="s">
+      <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B145">
-        <v>-0.17294579318282527</v>
+        <v>-0.17317774442199377</v>
       </c>
       <c r="C145">
-        <v>1.1540545332234233</v>
+        <v>1.1565632583484087</v>
       </c>
       <c r="D145">
-        <v>1.1890859439274692</v>
+        <v>1.1833535401619084</v>
       </c>
       <c r="E145">
         <v>-0.7143076325910479</v>
@@ -4089,17 +4065,17 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="13" t="s">
+      <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B146">
-        <v>1.5046478625833812</v>
+        <v>1.5043909588316671</v>
       </c>
       <c r="C146">
-        <v>0.041427675347246978</v>
+        <v>0.042058629669672297</v>
       </c>
       <c r="D146">
-        <v>-0.2478613859506614</v>
+        <v>-0.2511305032197001</v>
       </c>
       <c r="E146">
         <v>0.82781458975488964</v>
@@ -4112,17 +4088,17 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="13" t="s">
+      <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B147">
-        <v>-0.23989012652398675</v>
+        <v>-0.24089404401135353</v>
       </c>
       <c r="C147">
-        <v>1.4246198615482606</v>
+        <v>1.4226193054847556</v>
       </c>
       <c r="D147">
-        <v>-1.4675110139537655</v>
+        <v>-1.4714193677446699</v>
       </c>
       <c r="E147">
         <v>-1.2024537788545295</v>
@@ -4135,17 +4111,17 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="13" t="s">
+      <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B148">
-        <v>-0.74351089786787405</v>
+        <v>-0.74345872783176703</v>
       </c>
       <c r="C148">
-        <v>1.8517667150575416</v>
+        <v>1.8515250709047133</v>
       </c>
       <c r="D148">
-        <v>0.79026307941862972</v>
+        <v>0.78972894104954572</v>
       </c>
       <c r="E148">
         <v>1.1090549487447763</v>
@@ -4158,17 +4134,17 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="13" t="s">
+      <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B149">
-        <v>-0.93045652696957559</v>
+        <v>-0.93063844305578336</v>
       </c>
       <c r="C149">
-        <v>-1.1397630285097042</v>
+        <v>-1.1401709450267208</v>
       </c>
       <c r="D149">
-        <v>-0.068345187720924599</v>
+        <v>-0.065159682407224195</v>
       </c>
       <c r="E149">
         <v>-0.24840429281936915</v>
@@ -4181,17 +4157,17 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="13" t="s">
+      <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B150">
-        <v>-0.75093359047105623</v>
+        <v>-0.75074933766286478</v>
       </c>
       <c r="C150">
-        <v>-0.29987868003615009</v>
+        <v>-0.29814525876879305</v>
       </c>
       <c r="D150">
-        <v>0.84473488231929195</v>
+        <v>0.84425807361851413</v>
       </c>
       <c r="E150">
         <v>0.90435200373828084</v>
@@ -4204,17 +4180,17 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="13" t="s">
+      <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B151">
-        <v>-0.77598558280907215</v>
+        <v>-0.77542036480724408</v>
       </c>
       <c r="C151">
-        <v>0.99897041205052428</v>
+        <v>0.99957678642138781</v>
       </c>
       <c r="D151">
-        <v>1.4458595912036036</v>
+        <v>1.4475235207571684</v>
       </c>
       <c r="E151">
         <v>-1.271034115916609</v>
@@ -4227,17 +4203,17 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="13" t="s">
+      <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.54248762407382101</v>
+        <v>0.54201689563368405</v>
       </c>
       <c r="C152">
-        <v>0.39321155530344015</v>
+        <v>0.39272346710091005</v>
       </c>
       <c r="D152">
-        <v>-0.42659693403698717</v>
+        <v>-0.4299428987135398</v>
       </c>
       <c r="E152">
         <v>0.68132184065236956</v>
@@ -4250,17 +4226,17 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="13" t="s">
+      <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B153">
-        <v>1.076549843628982</v>
+        <v>1.0764246185202588</v>
       </c>
       <c r="C153">
-        <v>0.051860856157325975</v>
+        <v>0.052041294392725798</v>
       </c>
       <c r="D153">
-        <v>-0.16727288251665812</v>
+        <v>-0.16880033353399496</v>
       </c>
       <c r="E153">
         <v>1.4422590486277318</v>
@@ -4273,17 +4249,17 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="13" t="s">
+      <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B154">
-        <v>1.3011283662496786</v>
+        <v>1.3012690866580852</v>
       </c>
       <c r="C154">
-        <v>-0.26606448617822526</v>
+        <v>-0.26622108108298326</v>
       </c>
       <c r="D154">
-        <v>-0.25473053340179996</v>
+        <v>-0.25525238676263245</v>
       </c>
       <c r="E154">
         <v>1.3110634656870745</v>
@@ -4296,17 +4272,17 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="13" t="s">
+      <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.49323489032851442</v>
+        <v>0.49329906966147008</v>
       </c>
       <c r="C155">
-        <v>-0.40392767869231616</v>
+        <v>-0.40494519743181046</v>
       </c>
       <c r="D155">
-        <v>-0.97754413927296258</v>
+        <v>-0.97712097510245932</v>
       </c>
       <c r="E155">
         <v>-1.2660736068367695</v>
@@ -4319,17 +4295,17 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="13" t="s">
+      <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.80202805077965356</v>
+        <v>0.80188053618124833</v>
       </c>
       <c r="C156">
-        <v>0.66773821638579456</v>
+        <v>0.66720206364618684</v>
       </c>
       <c r="D156">
-        <v>-0.55038759866892606</v>
+        <v>-0.55218611212109114</v>
       </c>
       <c r="E156">
         <v>-0.3516088975029511</v>
@@ -4342,17 +4318,17 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="13" t="s">
+      <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.53505270012724138</v>
+        <v>0.53601253486352141</v>
       </c>
       <c r="C157">
-        <v>-0.58233178458253809</v>
+        <v>-0.5801526382548573</v>
       </c>
       <c r="D157">
-        <v>1.6826605633195233</v>
+        <v>1.6839930067097113</v>
       </c>
       <c r="E157">
         <v>1.2111625170562772</v>
@@ -4365,17 +4341,17 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="13" t="s">
+      <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B158">
-        <v>-1.0624778598942455</v>
+        <v>-1.061530847385344</v>
       </c>
       <c r="C158">
-        <v>-0.84613126471456535</v>
+        <v>-0.8470962391682364</v>
       </c>
       <c r="D158">
-        <v>0.20441691811657817</v>
+        <v>0.20907039499391616</v>
       </c>
       <c r="E158">
         <v>-0.89826878163990476</v>
@@ -4388,17 +4364,17 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="13" t="s">
+      <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0.1944064276997314</v>
+        <v>0.19547302909305456</v>
       </c>
       <c r="C159">
-        <v>-0.9416854079392839</v>
+        <v>-0.93959689769176424</v>
       </c>
       <c r="D159">
-        <v>1.9186022158437928</v>
+        <v>1.9203817968310624</v>
       </c>
       <c r="E159">
         <v>0.56036519319646216</v>
@@ -4411,17 +4387,17 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="13" t="s">
+      <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B160">
-        <v>-0.084985027629265394</v>
+        <v>-0.084166651939344653</v>
       </c>
       <c r="C160">
-        <v>-0.26267241414568904</v>
+        <v>-0.26024538659320995</v>
       </c>
       <c r="D160">
-        <v>2.0161400858055365</v>
+        <v>2.0150797104200988</v>
       </c>
       <c r="E160">
         <v>0.94636435626634641</v>
@@ -4434,17 +4410,17 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="13" t="s">
+      <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.8049521338060045</v>
+        <v>0.80458834311288907</v>
       </c>
       <c r="C161">
-        <v>-0.29248505418645443</v>
+        <v>-0.29434229960379554</v>
       </c>
       <c r="D161">
-        <v>-1.5520993905129439</v>
+        <v>-1.5515157167090063</v>
       </c>
       <c r="E161">
         <v>1.4446585353261907</v>
@@ -4457,17 +4433,17 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="13" t="s">
+      <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B162">
-        <v>1.0478860366439087</v>
+        <v>1.0475026293145393</v>
       </c>
       <c r="C162">
-        <v>0.5291308135185655</v>
+        <v>0.52820345849239636</v>
       </c>
       <c r="D162">
-        <v>-0.75980933242855742</v>
+        <v>-0.76134552797295918</v>
       </c>
       <c r="E162">
         <v>0.23642340135285783</v>
@@ -4480,17 +4456,17 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="13" t="s">
+      <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B163">
-        <v>-1.2270396964809036</v>
+        <v>-1.2278952267035266</v>
       </c>
       <c r="C163">
-        <v>0.93866725615378277</v>
+        <v>0.93596905298403832</v>
       </c>
       <c r="D163">
-        <v>-1.5313200125277051</v>
+        <v>-1.5308127566037972</v>
       </c>
       <c r="E163">
         <v>-1.1742753564591821</v>
@@ -4503,17 +4479,17 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="13" t="s">
+      <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B164">
-        <v>1.2030981203338706</v>
+        <v>1.2032326615576476</v>
       </c>
       <c r="C164">
-        <v>-0.73033233193814751</v>
+        <v>-0.72993522145480916</v>
       </c>
       <c r="D164">
-        <v>-0.36863608991722885</v>
+        <v>-0.36996888731333388</v>
       </c>
       <c r="E164">
         <v>0.7441776464730111</v>
@@ -4526,17 +4502,17 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="13" t="s">
+      <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0.82851214011032948</v>
+        <v>0.828825346016552</v>
       </c>
       <c r="C165">
-        <v>-1.9297547836935551</v>
+        <v>-1.9302825759042419</v>
       </c>
       <c r="D165">
-        <v>-0.74216574953940295</v>
+        <v>-0.73880187472056158</v>
       </c>
       <c r="E165">
         <v>0.80997155144133082</v>
@@ -4549,17 +4525,17 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="13" t="s">
+      <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0.9675737992192599</v>
+        <v>0.96782007248487656</v>
       </c>
       <c r="C166">
-        <v>-0.87057141040818431</v>
+        <v>-0.86985784673053801</v>
       </c>
       <c r="D166">
-        <v>0.076408378131760532</v>
+        <v>0.077390913343824072</v>
       </c>
       <c r="E166">
         <v>-1.0443205868469305</v>
@@ -4572,17 +4548,17 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="13" t="s">
+      <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B167">
-        <v>-1.7989945107412033</v>
+        <v>-1.7987367226511159</v>
       </c>
       <c r="C167">
-        <v>-0.50232729417802147</v>
+        <v>-0.50247676780197537</v>
       </c>
       <c r="D167">
-        <v>0.46370517409980871</v>
+        <v>0.46812672901125096</v>
       </c>
       <c r="E167">
         <v>-1.7327448525889955</v>
@@ -4595,17 +4571,17 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="13" t="s">
+      <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B168">
-        <v>-1.1017331156178169</v>
+        <v>-1.1015508952309017</v>
       </c>
       <c r="C168">
-        <v>-0.66980097384666504</v>
+        <v>-0.67210553684298202</v>
       </c>
       <c r="D168">
-        <v>-0.72781842773753025</v>
+        <v>-0.72099789317634499</v>
       </c>
       <c r="E168">
         <v>-0.81991515043789309</v>
@@ -4618,17 +4594,17 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="13" t="s">
+      <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B169">
-        <v>-1.3893300302609628</v>
+        <v>-1.3895515393150395</v>
       </c>
       <c r="C169">
-        <v>1.4519172612756277</v>
+        <v>1.4521728024797618</v>
       </c>
       <c r="D169">
-        <v>0.51863886671979387</v>
+        <v>0.51592061970248781</v>
       </c>
       <c r="E169">
         <v>-1.3380532466824551</v>
@@ -4641,17 +4617,17 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="13" t="s">
+      <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.87530749637503413</v>
+        <v>0.87499008814457879</v>
       </c>
       <c r="C170">
-        <v>-1.2133900565736195</v>
+        <v>-1.2145546775902478</v>
       </c>
       <c r="D170">
-        <v>-1.4353131134103574</v>
+        <v>-1.4350696580048266</v>
       </c>
       <c r="E170">
         <v>1.3579120061609502</v>
@@ -4664,17 +4640,17 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="13" t="s">
+      <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B171">
-        <v>0.9584912295136977</v>
+        <v>0.95863569310686725</v>
       </c>
       <c r="C171">
-        <v>1.0977846523254917</v>
+        <v>1.0998934427201641</v>
       </c>
       <c r="D171">
-        <v>1.2966638628436953</v>
+        <v>1.292578408908629</v>
       </c>
       <c r="E171">
         <v>0.8416441017527444</v>
@@ -4687,17 +4663,17 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="13" t="s">
+      <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.63745737150015691</v>
+        <v>0.63754796049696238</v>
       </c>
       <c r="C172">
-        <v>1.3908870734282501</v>
+        <v>1.3931885126084709</v>
       </c>
       <c r="D172">
-        <v>1.3871756812173686</v>
+        <v>1.3810921639647245</v>
       </c>
       <c r="E172">
         <v>-0.40341764180650586</v>
@@ -4710,17 +4686,17 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="13" t="s">
+      <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B173">
-        <v>-1.2476452828043072</v>
+        <v>-1.2468523356042569</v>
       </c>
       <c r="C173">
-        <v>0.80379216329985548</v>
+        <v>0.80571155575317788</v>
       </c>
       <c r="D173">
-        <v>2.0092143710678947</v>
+        <v>2.0088063312228437</v>
       </c>
       <c r="E173">
         <v>-1.042955602962814</v>
@@ -4733,17 +4709,17 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="13" t="s">
+      <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B174">
-        <v>-0.29995374526515467</v>
+        <v>-0.29997215276944894</v>
       </c>
       <c r="C174">
-        <v>0.66601507943550875</v>
+        <v>0.66335323835106996</v>
       </c>
       <c r="D174">
-        <v>-1.1186845773119647</v>
+        <v>-1.1159761396554437</v>
       </c>
       <c r="E174">
         <v>-0.70213666460419244</v>
@@ -4756,17 +4732,17 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="13" t="s">
+      <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B175">
-        <v>-0.69056425188309356</v>
+        <v>-0.69125095022177163</v>
       </c>
       <c r="C175">
-        <v>1.0076992593451322</v>
+        <v>1.0054685117204394</v>
       </c>
       <c r="D175">
-        <v>-1.3947145323391654</v>
+        <v>-1.3936455679565563</v>
       </c>
       <c r="E175">
         <v>-0.50187613063426018</v>
@@ -4779,17 +4755,17 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="13" t="s">
+      <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.87133052061554006</v>
+        <v>0.87145369466363787</v>
       </c>
       <c r="C176">
-        <v>0.69007429614870941</v>
+        <v>0.69131436909478805</v>
       </c>
       <c r="D176">
-        <v>0.69982042397592747</v>
+        <v>0.69747572356413834</v>
       </c>
       <c r="E176">
         <v>0.42259193490275654</v>
@@ -4802,17 +4778,17 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="13" t="s">
+      <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B177">
-        <v>-0.23562260886951644</v>
+        <v>-0.23540905956716682</v>
       </c>
       <c r="C177">
-        <v>-2.1088598503956253</v>
+        <v>-2.1086900063084326</v>
       </c>
       <c r="D177">
-        <v>-0.36344622000091248</v>
+        <v>-0.360241784363239</v>
       </c>
       <c r="E177">
         <v>0.029923720025197754</v>
@@ -4825,17 +4801,17 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="13" t="s">
+      <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B178">
-        <v>-0.93302759629395282</v>
+        <v>-0.93334742960483008</v>
       </c>
       <c r="C178">
-        <v>0.031811692292377076</v>
+        <v>0.032683494665057891</v>
       </c>
       <c r="D178">
-        <v>0.15261023376226956</v>
+        <v>0.15191212767614667</v>
       </c>
       <c r="E178">
         <v>-0.85774497666229677</v>
@@ -4848,17 +4824,17 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="13" t="s">
+      <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B179">
-        <v>-0.25720826705496475</v>
+        <v>-0.25695157573387795</v>
       </c>
       <c r="C179">
-        <v>0.087033417383204317</v>
+        <v>0.090278365752752956</v>
       </c>
       <c r="D179">
-        <v>2.1991078189226974</v>
+        <v>2.1967878734226503</v>
       </c>
       <c r="E179">
         <v>-0.38715982508311897</v>
@@ -4871,17 +4847,17 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="13" t="s">
+      <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B180">
-        <v>-1.3221328096392795</v>
+        <v>-1.3217501436714458</v>
       </c>
       <c r="C180">
-        <v>-0.7413474553393492</v>
+        <v>-0.74077573289037779</v>
       </c>
       <c r="D180">
-        <v>0.59241512660778595</v>
+        <v>0.59669738816375728</v>
       </c>
       <c r="E180">
         <v>-1.4484681142627489</v>
@@ -4894,17 +4870,17 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="13" t="s">
+      <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B181">
-        <v>-0.94039659631264372</v>
+        <v>-0.94059056611436154</v>
       </c>
       <c r="C181">
-        <v>-1.6351950886728799</v>
+        <v>-1.6368779300455194</v>
       </c>
       <c r="D181">
-        <v>-1.2026668339571638</v>
+        <v>-1.1990288121123009</v>
       </c>
       <c r="E181">
         <v>-1.5766927279555834</v>
@@ -4917,17 +4893,17 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="13" t="s">
+      <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B182">
-        <v>-1.3216226718688644</v>
+        <v>-1.3228130518008476</v>
       </c>
       <c r="C182">
-        <v>0.92493125973574897</v>
+        <v>0.92537422263623326</v>
       </c>
       <c r="D182">
-        <v>-0.25549667121515629</v>
+        <v>-0.2580692487780909</v>
       </c>
       <c r="E182">
         <v>-1.6506459673385576</v>
@@ -4940,17 +4916,17 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="13" t="s">
+      <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B183">
-        <v>-0.081230967270533069</v>
+        <v>-0.081633353364518921</v>
       </c>
       <c r="C183">
-        <v>1.7140344470614426</v>
+        <v>1.7153168697034182</v>
       </c>
       <c r="D183">
-        <v>0.68277957390787469</v>
+        <v>0.67844033410674398</v>
       </c>
       <c r="E183">
         <v>-0.0030409569708747144</v>
@@ -4963,17 +4939,17 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="13" t="s">
+      <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B184">
-        <v>-0.16174488248629457</v>
+        <v>-0.16078593463039326</v>
       </c>
       <c r="C184">
-        <v>-1.0817056718044009</v>
+        <v>-1.0794608829186032</v>
       </c>
       <c r="D184">
-        <v>1.7223579714799466</v>
+        <v>1.7248239019249429</v>
       </c>
       <c r="E184">
         <v>-1.0963015687911219</v>
@@ -4986,17 +4962,17 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="13" t="s">
+      <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B185">
-        <v>-1.0665489581969605</v>
+        <v>-1.0656737004436632</v>
       </c>
       <c r="C185">
-        <v>1.246684725264916</v>
+        <v>1.248004434152155</v>
       </c>
       <c r="D185">
-        <v>1.9643716323979359</v>
+        <v>1.9652204963275639</v>
       </c>
       <c r="E185">
         <v>0.25205390838395286</v>
@@ -5009,17 +4985,17 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="13" t="s">
+      <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B186">
-        <v>0.51027043943114847</v>
+        <v>0.51108499053699918</v>
       </c>
       <c r="C186">
-        <v>-0.9035363472198682</v>
+        <v>-0.90017143548475409</v>
       </c>
       <c r="D186">
-        <v>2.0259643514862193</v>
+        <v>2.0256163093306703</v>
       </c>
       <c r="E186">
         <v>-1.137814502690915</v>
@@ -5032,17 +5008,17 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="13" t="s">
+      <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B187">
-        <v>0.5201480113933894</v>
+        <v>0.52073534133333754</v>
       </c>
       <c r="C187">
-        <v>-1.1808451133388187</v>
+        <v>-1.181203708001727</v>
       </c>
       <c r="D187">
-        <v>0.0659802556980702</v>
+        <v>0.069169368358955818</v>
       </c>
       <c r="E187">
         <v>1.249219016375879</v>
@@ -5055,17 +5031,17 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="13" t="s">
+      <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0.12356239171561752</v>
+        <v>0.12384749430462316</v>
       </c>
       <c r="C188">
-        <v>-1.666336378734061</v>
+        <v>-1.6671459011244976</v>
       </c>
       <c r="D188">
-        <v>-0.5506947750948965</v>
+        <v>-0.54629755636581778</v>
       </c>
       <c r="E188">
         <v>0.43041838458398429</v>
@@ -5078,17 +5054,17 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="13" t="s">
+      <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B189">
-        <v>-1.402674466153595</v>
+        <v>-1.4029220800926026</v>
       </c>
       <c r="C189">
-        <v>1.8381903900353795</v>
+        <v>1.8370273853950632</v>
       </c>
       <c r="D189">
-        <v>-0.042112681357238342</v>
+        <v>-0.043645990774941065</v>
       </c>
       <c r="E189">
         <v>0.9050198164259976</v>
@@ -5101,17 +5077,17 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="13" t="s">
+      <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B190">
-        <v>0.66724535796630924</v>
+        <v>0.66732847397065087</v>
       </c>
       <c r="C190">
-        <v>0.68402040549013454</v>
+        <v>0.68503673314669733</v>
       </c>
       <c r="D190">
-        <v>0.43482210962377932</v>
+        <v>0.43271620908819336</v>
       </c>
       <c r="E190">
         <v>-0.058704503491754961</v>
@@ -5124,17 +5100,17 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="13" t="s">
+      <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B191">
-        <v>0.93232200580775937</v>
+        <v>0.93223168563590852</v>
       </c>
       <c r="C191">
-        <v>-0.7386411160402544</v>
+        <v>-0.73800998210279678</v>
       </c>
       <c r="D191">
-        <v>-0.3408859158872376</v>
+        <v>-0.34283441412298632</v>
       </c>
       <c r="E191">
         <v>-0.91620791192982731</v>
@@ -5147,17 +5123,17 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="13" t="s">
+      <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-1.0119512403300237</v>
+        <v>-1.0117991521593237</v>
       </c>
       <c r="C192">
-        <v>0.69628276609355932</v>
+        <v>0.69364232204616971</v>
       </c>
       <c r="D192">
-        <v>-0.74329098184471598</v>
+        <v>-0.74013391396956674</v>
       </c>
       <c r="E192">
         <v>-1.3031603305922035</v>
@@ -5170,17 +5146,17 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="13" t="s">
+      <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B193">
-        <v>1.0935252159946331</v>
+        <v>1.0931253418785845</v>
       </c>
       <c r="C193">
-        <v>-0.31723791853095434</v>
+        <v>-0.3168489721305226</v>
       </c>
       <c r="D193">
-        <v>-0.46709977576630524</v>
+        <v>-0.46849164026065521</v>
       </c>
       <c r="E193">
         <v>1.1946752355767454</v>
@@ -5193,17 +5169,17 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="13" t="s">
+      <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B194">
-        <v>1.1659525129145663</v>
+        <v>1.1661327576025302</v>
       </c>
       <c r="C194">
-        <v>-0.25795636377086573</v>
+        <v>-0.25772818145031462</v>
       </c>
       <c r="D194">
-        <v>-0.017993422878640492</v>
+        <v>-0.018334330878791005</v>
       </c>
       <c r="E194">
         <v>0.80251446734442455</v>
@@ -5216,17 +5192,17 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="13" t="s">
+      <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0.82401455600194295</v>
+        <v>0.82434586090602591</v>
       </c>
       <c r="C195">
-        <v>0.63180010399270692</v>
+        <v>0.6331642207686079</v>
       </c>
       <c r="D195">
-        <v>0.90634642461907389</v>
+        <v>0.90531795970888784</v>
       </c>
       <c r="E195">
         <v>0.98748316750999865</v>
@@ -5239,17 +5215,17 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="13" t="s">
+      <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B196">
-        <v>-1.5744627211157325</v>
+        <v>-1.5747627491462484</v>
       </c>
       <c r="C196">
-        <v>0.60555990734391052</v>
+        <v>0.60359253262831347</v>
       </c>
       <c r="D196">
-        <v>-0.75710819945602625</v>
+        <v>-0.75623974398982141</v>
       </c>
       <c r="E196">
         <v>-0.87246291006084198</v>
@@ -5262,17 +5238,17 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="13" t="s">
+      <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B197">
-        <v>-1.4104269857861758</v>
+        <v>-1.4112647519185073</v>
       </c>
       <c r="C197">
-        <v>0.54409568800548458</v>
+        <v>0.54328470080822489</v>
       </c>
       <c r="D197">
-        <v>-1.1183964699485542</v>
+        <v>-1.1188847988962249</v>
       </c>
       <c r="E197">
         <v>-1.0946389549523681</v>
@@ -5285,17 +5261,17 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="13" t="s">
+      <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B198">
-        <v>0.60988982852573992</v>
+        <v>0.60924022896792673</v>
       </c>
       <c r="C198">
-        <v>-0.88519408250651355</v>
+        <v>-0.88758206064073875</v>
       </c>
       <c r="D198">
-        <v>-1.9064679153108353</v>
+        <v>-1.9051401665006737</v>
       </c>
       <c r="E198">
         <v>1.1872789371327437</v>
@@ -5308,17 +5284,17 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="13" t="s">
+      <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B199">
-        <v>1.3829407495025023</v>
+        <v>1.3828555569398235</v>
       </c>
       <c r="C199">
-        <v>-1.3256181879960169</v>
+        <v>-1.3264870329817358</v>
       </c>
       <c r="D199">
-        <v>-1.0210010646869141</v>
+        <v>-1.020139198590186</v>
       </c>
       <c r="E199">
         <v>0.56068062171408561</v>
@@ -5331,17 +5307,17 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="13" t="s">
+      <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B200">
-        <v>-1.6296098550947986</v>
+        <v>-1.6298046941968898</v>
       </c>
       <c r="C200">
-        <v>-0.2100238297414303</v>
+        <v>-0.21099025665163243</v>
       </c>
       <c r="D200">
-        <v>-0.43999875940884187</v>
+        <v>-0.43823532397256498</v>
       </c>
       <c r="E200">
         <v>-0.51782554363062416</v>
@@ -5354,17 +5330,17 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="13" t="s">
+      <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B201">
-        <v>-0.70055878842394514</v>
+        <v>-0.70056573060336658</v>
       </c>
       <c r="C201">
-        <v>0.38235765986362563</v>
+        <v>0.38107118398944945</v>
       </c>
       <c r="D201">
-        <v>-0.46007591946987736</v>
+        <v>-0.45985500677684921</v>
       </c>
       <c r="E201">
         <v>-0.6601662811562834</v>
@@ -5377,17 +5353,17 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="13" t="s">
+      <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0.48354380048050782</v>
+        <v>0.4830864052268572</v>
       </c>
       <c r="C202">
-        <v>0.97078231081305588</v>
+        <v>0.96935009588100396</v>
       </c>
       <c r="D202">
-        <v>-1.0608705014780775</v>
+        <v>-1.0629902930729023</v>
       </c>
       <c r="E202">
         <v>0.27857056056604057</v>
@@ -5400,17 +5376,17 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="13" t="s">
+      <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B203">
-        <v>0.55036110503002811</v>
+        <v>0.55136996673936356</v>
       </c>
       <c r="C203">
-        <v>0.70952106812417903</v>
+        <v>0.71044939150039177</v>
       </c>
       <c r="D203">
-        <v>1.4641050271734912</v>
+        <v>1.4643134835609697</v>
       </c>
       <c r="E203">
         <v>-0.08512483919975683</v>
@@ -5423,17 +5399,17 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="13" t="s">
+      <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B204">
-        <v>0.4378178675525688</v>
+        <v>0.43724141173255421</v>
       </c>
       <c r="C204">
-        <v>1.3409179133434981</v>
+        <v>1.3411899826648002</v>
       </c>
       <c r="D204">
-        <v>-0.41782190679780468</v>
+        <v>-0.4226545242476063</v>
       </c>
       <c r="E204">
         <v>-1.1708206744808289</v>
@@ -5446,17 +5422,17 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="13" t="s">
+      <c r="A205" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B205">
-        <v>0.51760059038500894</v>
+        <v>0.51856581806191571</v>
       </c>
       <c r="C205">
-        <v>-0.96048696220441765</v>
+        <v>-0.95978989001523252</v>
       </c>
       <c r="D205">
-        <v>0.89968384083241648</v>
+        <v>0.90086246929323677</v>
       </c>
       <c r="E205">
         <v>0.72540642311041892</v>
@@ -5469,17 +5445,17 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="13" t="s">
+      <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B206">
-        <v>-0.26282118990943371</v>
+        <v>-0.26237601200986038</v>
       </c>
       <c r="C206">
-        <v>-1.3160498361736237</v>
+        <v>-1.3146583663641584</v>
       </c>
       <c r="D206">
-        <v>0.58014939167120338</v>
+        <v>0.58378273397695679</v>
       </c>
       <c r="E206">
         <v>-0.033668383258063192</v>
@@ -5492,17 +5468,17 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="13" t="s">
+      <c r="A207" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B207">
-        <v>-1.1221933322089874</v>
+        <v>-1.1220112109911251</v>
       </c>
       <c r="C207">
-        <v>1.3163205983376325</v>
+        <v>1.3166042074047186</v>
       </c>
       <c r="D207">
-        <v>1.1789319937953067</v>
+        <v>1.1803318279648614</v>
       </c>
       <c r="E207">
         <v>-1.0871554004774049</v>
@@ -5515,17 +5491,17 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="13" t="s">
+      <c r="A208" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B208">
-        <v>1.3476491497972072</v>
+        <v>1.3478746157087635</v>
       </c>
       <c r="C208">
-        <v>-1.347253021772606</v>
+        <v>-1.3459081559493768</v>
       </c>
       <c r="D208">
-        <v>0.086174431745591487</v>
+        <v>0.086083289576667152</v>
       </c>
       <c r="E208">
         <v>0.15158993128117393</v>
@@ -5538,17 +5514,17 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="13" t="s">
+      <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B209">
-        <v>-2.1265115017249516</v>
+        <v>-2.126489987162925</v>
       </c>
       <c r="C209">
-        <v>0.3495784631525527</v>
+        <v>0.34909638631028883</v>
       </c>
       <c r="D209">
-        <v>0.15261562836564879</v>
+        <v>0.15577048121708068</v>
       </c>
       <c r="E209">
         <v>-0.37287097296776528</v>
@@ -5561,17 +5537,17 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="13" t="s">
+      <c r="A210" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.24604938989617109</v>
+        <v>0.24565002701915464</v>
       </c>
       <c r="C210">
-        <v>1.5757442459881514</v>
+        <v>1.5771056809214883</v>
       </c>
       <c r="D210">
-        <v>0.64654938700710374</v>
+        <v>0.64186180840773444</v>
       </c>
       <c r="E210">
         <v>0.16045117051584024</v>
@@ -5584,17 +5560,17 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="13" t="s">
+      <c r="A211" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B211">
-        <v>-1.0160395895206684</v>
+        <v>-1.0155681126854283</v>
       </c>
       <c r="C211">
-        <v>-0.037453935051267012</v>
+        <v>-0.039317399455760529</v>
       </c>
       <c r="D211">
-        <v>-0.29595282261645739</v>
+        <v>-0.29193803015697539</v>
       </c>
       <c r="E211">
         <v>-1.3286635771146706</v>
@@ -5607,17 +5583,17 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="13" t="s">
+      <c r="A212" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B212">
-        <v>1.2845207581666838</v>
+        <v>1.2844370916687982</v>
       </c>
       <c r="C212">
-        <v>0.038452681055140658</v>
+        <v>0.03875805512639828</v>
       </c>
       <c r="D212">
-        <v>-0.25596337549258436</v>
+        <v>-0.25907381934745571</v>
       </c>
       <c r="E212">
         <v>0.84025977542583274</v>
@@ -5630,17 +5606,17 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="13" t="s">
+      <c r="A213" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B213">
-        <v>0.58278918816101666</v>
+        <v>0.58199177793941492</v>
       </c>
       <c r="C213">
-        <v>-0.58084651903722195</v>
+        <v>-0.58191228938486939</v>
       </c>
       <c r="D213">
-        <v>-1.4467370691846051</v>
+        <v>-1.4466972652252053</v>
       </c>
       <c r="E213">
         <v>0.21633652469156683</v>
